--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A25FE-6258-784E-B0E3-D887A05B2E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934625CD-4198-EF4C-97AA-7AD15D5C25EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>p+0</t>
   </si>
@@ -233,6 +233,34 @@
   </si>
   <si>
     <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address8[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address8[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address8[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address8[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +312,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -305,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -409,13 +446,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,46 +601,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
-  <dimension ref="C3:Y36"/>
+  <dimension ref="C3:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -840,6 +1013,7 @@
     <col min="21" max="21" width="5.6640625" customWidth="1"/>
     <col min="22" max="22" width="4.33203125" customWidth="1"/>
     <col min="25" max="25" width="5.33203125" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:25">
@@ -911,38 +1085,38 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="3:25" ht="19">
-      <c r="F9" s="17">
+      <c r="F9" s="27">
         <v>3</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="29">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="29">
         <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="X9" s="20"/>
+      <c r="X9" s="17"/>
       <c r="Y9">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:25" ht="19">
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
@@ -951,19 +1125,19 @@
         <v>13</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="X10" s="20"/>
+      <c r="X10" s="17"/>
       <c r="Y10">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="3:25" ht="19">
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="T11" s="5"/>
-      <c r="X11" s="20"/>
+      <c r="X11" s="17"/>
       <c r="Y11">
         <v>13</v>
       </c>
@@ -984,25 +1158,25 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="20"/>
+      <c r="P12" s="17"/>
       <c r="Q12">
         <v>11</v>
       </c>
       <c r="T12" s="3"/>
-      <c r="W12" s="26" t="s">
+      <c r="W12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X12" s="21"/>
+      <c r="X12" s="18"/>
       <c r="Y12">
         <v>12</v>
       </c>
@@ -1014,39 +1188,39 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="27">
         <v>2</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="29">
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="29">
         <v>15</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="20"/>
+      <c r="P13" s="17"/>
       <c r="Q13">
         <v>10</v>
       </c>
       <c r="S13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="27"/>
+      <c r="T13" s="26"/>
       <c r="U13">
         <v>11</v>
       </c>
       <c r="W13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="27"/>
+      <c r="X13" s="26"/>
       <c r="Y13">
         <v>11</v>
       </c>
@@ -1058,27 +1232,27 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="20"/>
+      <c r="P14" s="17"/>
       <c r="Q14">
         <v>9</v>
       </c>
       <c r="S14" s="25"/>
-      <c r="T14" s="27"/>
+      <c r="T14" s="26"/>
       <c r="U14">
         <v>10</v>
       </c>
       <c r="W14" s="25"/>
-      <c r="X14" s="27"/>
+      <c r="X14" s="26"/>
       <c r="Y14">
         <v>10</v>
       </c>
@@ -1090,32 +1264,32 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="19">
         <v>1</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="S15" s="25"/>
-      <c r="T15" s="27"/>
+      <c r="T15" s="26"/>
       <c r="U15">
         <v>9</v>
       </c>
       <c r="W15" s="25"/>
-      <c r="X15" s="27"/>
+      <c r="X15" s="26"/>
       <c r="Y15">
         <v>9</v>
       </c>
@@ -1127,183 +1301,201 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="28">
         <v>2000</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
       <c r="S16" s="25"/>
-      <c r="T16" s="27"/>
+      <c r="T16" s="26"/>
       <c r="U16">
         <v>8</v>
       </c>
       <c r="W16" s="25"/>
-      <c r="X16" s="27"/>
+      <c r="X16" s="26"/>
       <c r="Y16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="6:25" ht="19">
-      <c r="F17" s="17">
+    <row r="17" spans="6:30" ht="19">
+      <c r="F17" s="27">
         <v>1</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="29">
         <v>8</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="29">
         <v>14</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="22"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="29"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="23"/>
       <c r="U17">
         <v>7</v>
       </c>
-      <c r="W17" s="26"/>
-      <c r="X17" s="29"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="23"/>
       <c r="Y17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="6:25" ht="19">
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+    <row r="18" spans="6:30" ht="19">
+      <c r="F18" s="27"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="22"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="28"/>
       <c r="Q18">
         <v>5</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="29"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="23"/>
       <c r="U18">
         <v>6</v>
       </c>
-      <c r="W18" s="26"/>
-      <c r="X18" s="29"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="23"/>
       <c r="Y18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="6:25" ht="19">
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD18" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:30" ht="19">
+      <c r="F19" s="27"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="22"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="28"/>
       <c r="Q19">
         <v>4</v>
       </c>
-      <c r="S19" s="26" t="s">
+      <c r="S19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="28"/>
+      <c r="T19" s="22"/>
       <c r="U19">
         <v>5</v>
       </c>
-      <c r="W19" s="26"/>
-      <c r="X19" s="30"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="24"/>
       <c r="Y19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="6:25" ht="19">
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="31"/>
+    </row>
+    <row r="20" spans="6:30" ht="19">
+      <c r="F20" s="27"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="19">
         <v>0</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
-      <c r="S20" s="26" t="s">
+      <c r="S20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="T20" s="28"/>
+      <c r="T20" s="22"/>
       <c r="U20">
         <v>4</v>
       </c>
-      <c r="W20" s="26" t="s">
+      <c r="W20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="X20" s="28"/>
+      <c r="X20" s="22"/>
       <c r="Y20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="6:25" ht="19">
-      <c r="F21" s="17">
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="6:30" ht="19">
+      <c r="F21" s="27">
         <v>0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="29">
         <v>9</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="29">
         <v>13</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="23">
+      <c r="O21" s="27"/>
+      <c r="P21" s="19">
         <v>0</v>
       </c>
       <c r="Q21">
@@ -1312,84 +1504,116 @@
       <c r="S21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="27"/>
+      <c r="T21" s="26"/>
       <c r="U21">
         <v>3</v>
       </c>
       <c r="W21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="27"/>
+      <c r="X21" s="26"/>
       <c r="Y21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="6:25" ht="19">
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="AA21" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB21" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>127</v>
+      </c>
+      <c r="AD21" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="6:30" ht="19">
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="24" t="s">
+      <c r="O22" s="27"/>
+      <c r="P22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="S22" s="25"/>
-      <c r="T22" s="27"/>
+      <c r="T22" s="26"/>
       <c r="U22">
         <v>2</v>
       </c>
       <c r="W22" s="25"/>
-      <c r="X22" s="27"/>
+      <c r="X22" s="26"/>
       <c r="Y22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="6:25" ht="19">
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="AA22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="6:30" ht="19">
+      <c r="F23" s="27"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="24" t="s">
+      <c r="O23" s="27"/>
+      <c r="P23" s="20" t="s">
         <v>53</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="S23" s="25"/>
-      <c r="T23" s="27"/>
+      <c r="T23" s="26"/>
       <c r="U23">
         <v>1</v>
       </c>
       <c r="W23" s="25"/>
-      <c r="X23" s="27"/>
+      <c r="X23" s="26"/>
       <c r="Y23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="6:25" ht="19">
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="AA23" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="6:30" ht="19">
+      <c r="F24" s="27"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1398,25 +1622,35 @@
         <v>-1</v>
       </c>
       <c r="S24" s="25"/>
-      <c r="T24" s="27"/>
+      <c r="T24" s="26"/>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="W24" s="25"/>
-      <c r="X24" s="27"/>
+      <c r="X24" s="26"/>
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="6:25" ht="19">
+      <c r="AA24" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="6:30" ht="19">
       <c r="G25" s="3"/>
       <c r="H25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="29">
         <v>12</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -1428,79 +1662,90 @@
       </c>
       <c r="T25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="6:25" ht="19">
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="6:30" ht="19">
       <c r="G26" s="3"/>
       <c r="H26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P26" s="7"/>
       <c r="T26" s="7"/>
       <c r="X26" s="7"/>
-    </row>
-    <row r="27" spans="6:25" ht="19">
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="31"/>
+    </row>
+    <row r="27" spans="6:30" ht="19">
       <c r="G27" s="3"/>
       <c r="H27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="P27" s="6"/>
       <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="6:25" ht="19">
+      <c r="AC27" s="6"/>
+    </row>
+    <row r="28" spans="6:30" ht="19">
       <c r="G28" s="3"/>
       <c r="H28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="6:25" ht="19">
+    <row r="29" spans="6:30" ht="19">
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="29">
         <v>11</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="6:25" ht="19">
+    <row r="30" spans="6:30" ht="19">
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="6:25" ht="19">
+    <row r="31" spans="6:30" ht="19">
       <c r="H31" s="8"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:25" ht="19">
+    <row r="32" spans="6:30" ht="19">
       <c r="H32" s="8"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="19"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="10" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1775,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="AB21:AB24"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K32"/>
     <mergeCell ref="W13:W16"/>
     <mergeCell ref="X13:X16"/>
     <mergeCell ref="W21:W24"/>
@@ -1542,26 +1808,6 @@
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="S13:S16"/>
     <mergeCell ref="T13:T16"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934625CD-4198-EF4C-97AA-7AD15D5C25EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E8BCA-9CBF-0442-A798-1EB2CB049B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
+    <workbookView xWindow="18200" yWindow="2220" windowWidth="20900" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>p+0</t>
   </si>
@@ -261,6 +261,130 @@
   </si>
   <si>
     <t>Union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xABCDEF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xABCDEF00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xABCDEF02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xABCDEF03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students[3]</t>
+  </si>
+  <si>
+    <t>students[2]</t>
+  </si>
+  <si>
+    <t>students[1]</t>
+  </si>
+  <si>
+    <t>0x...09</t>
+  </si>
+  <si>
+    <t>0x...08</t>
+  </si>
+  <si>
+    <t>0x...07</t>
+  </si>
+  <si>
+    <t>0x...06</t>
+  </si>
+  <si>
+    <t>0x...05</t>
+  </si>
+  <si>
+    <t>0x...04</t>
+  </si>
+  <si>
+    <t>0x...03</t>
+  </si>
+  <si>
+    <t>0x...02</t>
+  </si>
+  <si>
+    <t>0x...01</t>
+  </si>
+  <si>
+    <t>0x...0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +445,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -543,13 +683,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,59 +777,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,18 +1196,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
-  <dimension ref="C3:AD36"/>
+  <dimension ref="B3:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18:AD26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="6.1640625" customWidth="1"/>
     <col min="21" max="21" width="5.6640625" customWidth="1"/>
@@ -1016,7 +1219,7 @@
     <col min="29" max="29" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25">
+    <row r="3" spans="3:33">
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1036,11 +1239,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" spans="3:33">
       <c r="G4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="3:25" ht="19">
+    <row r="5" spans="3:33" ht="19">
       <c r="G5" s="3"/>
       <c r="H5" s="10" t="s">
         <v>19</v>
@@ -1049,8 +1252,11 @@
       <c r="M5" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="3:25" ht="19">
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="48"/>
+    </row>
+    <row r="6" spans="3:33" ht="19">
       <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
         <v>20</v>
@@ -1060,8 +1266,11 @@
         <v>32</v>
       </c>
       <c r="X6" s="6"/>
-    </row>
-    <row r="7" spans="3:25" ht="19">
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="48"/>
+    </row>
+    <row r="7" spans="3:33" ht="19">
       <c r="G7" s="3"/>
       <c r="H7" s="10" t="s">
         <v>21</v>
@@ -1071,8 +1280,17 @@
         <v>33</v>
       </c>
       <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="3:25" ht="19">
+      <c r="AE7" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="51">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="3:33" ht="19">
       <c r="G8" s="3"/>
       <c r="H8" s="10" t="s">
         <v>22</v>
@@ -1083,21 +1301,26 @@
       </c>
       <c r="P8" s="6"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="3:25" ht="19">
-      <c r="F9" s="27">
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="3:33" ht="19">
+      <c r="F9" s="41">
         <v>3</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="42">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="42">
         <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -1108,15 +1331,20 @@
       <c r="Y9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="3:25" ht="19">
-      <c r="F10" s="27"/>
-      <c r="G10" s="29"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="3:33" ht="19">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1129,15 +1357,20 @@
       <c r="Y10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="3:25" ht="19">
-      <c r="F11" s="27"/>
-      <c r="G11" s="29"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="3:33" ht="19">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="29"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1150,21 +1383,24 @@
       <c r="Y11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="3:25" ht="19">
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="48"/>
+    </row>
+    <row r="12" spans="3:33" ht="19">
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="29"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
       <c r="M12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1180,27 +1416,30 @@
       <c r="Y12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="3:25" ht="19">
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="48"/>
+    </row>
+    <row r="13" spans="3:33" ht="19">
       <c r="C13" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="41">
         <v>2</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="42">
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="42">
         <v>15</v>
       </c>
       <c r="M13" s="10" t="s">
@@ -1210,35 +1449,38 @@
       <c r="Q13">
         <v>10</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="26"/>
+      <c r="T13" s="45"/>
       <c r="U13">
         <v>11</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="26"/>
+      <c r="X13" s="45"/>
       <c r="Y13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="3:25" ht="19">
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="48"/>
+    </row>
+    <row r="14" spans="3:33" ht="19">
       <c r="C14" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1246,31 +1488,34 @@
       <c r="Q14">
         <v>9</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="45"/>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="45"/>
       <c r="Y14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="3:25" ht="19">
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="48"/>
+    </row>
+    <row r="15" spans="3:33" ht="19">
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1283,75 +1528,83 @@
       <c r="Q15">
         <v>8</v>
       </c>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
       <c r="U15">
         <v>9</v>
       </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="45"/>
       <c r="Y15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="3:25" ht="19">
+      <c r="AE15" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="48"/>
+    </row>
+    <row r="16" spans="3:33" ht="19">
       <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="46">
         <v>2000</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="26"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="45"/>
       <c r="U16">
         <v>8</v>
       </c>
-      <c r="W16" s="25"/>
-      <c r="X16" s="26"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="45"/>
       <c r="Y16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="6:30" ht="19">
-      <c r="F17" s="27">
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="48"/>
+    </row>
+    <row r="17" spans="6:33" ht="19">
+      <c r="F17" s="41">
         <v>1</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="42">
         <v>8</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="42">
         <v>14</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="46"/>
       <c r="Q17">
         <v>6</v>
       </c>
@@ -1365,20 +1618,23 @@
       <c r="Y17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="6:30" ht="19">
-      <c r="F18" s="27"/>
-      <c r="G18" s="29"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="48"/>
+    </row>
+    <row r="18" spans="6:33" ht="19">
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="29"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="46"/>
       <c r="Q18">
         <v>5</v>
       </c>
@@ -1392,28 +1648,31 @@
       <c r="Y18">
         <v>6</v>
       </c>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="32" t="s">
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AD18" s="31" t="s">
+      <c r="AD18" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="6:30" ht="19">
-      <c r="F19" s="27"/>
-      <c r="G19" s="29"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="48"/>
+    </row>
+    <row r="19" spans="6:33" ht="19">
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="29"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="46"/>
       <c r="Q19">
         <v>4</v>
       </c>
@@ -1429,23 +1688,28 @@
       <c r="Y19">
         <v>5</v>
       </c>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="31"/>
-    </row>
-    <row r="20" spans="6:30" ht="19">
-      <c r="F20" s="27"/>
-      <c r="G20" s="29"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="48"/>
+    </row>
+    <row r="20" spans="6:33" ht="19">
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="41" t="s">
         <v>50</v>
       </c>
       <c r="P20" s="19">
@@ -1468,152 +1732,164 @@
       <c r="Y20">
         <v>4</v>
       </c>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="31" t="s">
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="6:30" ht="19">
-      <c r="F21" s="27">
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="48"/>
+    </row>
+    <row r="21" spans="6:33" ht="19">
+      <c r="F21" s="41">
         <v>0</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="42">
         <v>9</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="42">
         <v>13</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="27"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="19">
         <v>0</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="26"/>
+      <c r="T21" s="45"/>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="W21" s="25" t="s">
+      <c r="W21" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="26"/>
+      <c r="X21" s="45"/>
       <c r="Y21">
         <v>3</v>
       </c>
-      <c r="AA21" s="36" t="s">
+      <c r="AA21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AB21" s="37" t="s">
+      <c r="AB21" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AC21" s="38">
+      <c r="AC21" s="34">
         <v>127</v>
       </c>
-      <c r="AD21" s="31" t="s">
+      <c r="AD21" s="28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="6:30" ht="19">
-      <c r="F22" s="27"/>
-      <c r="G22" s="29"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="48"/>
+    </row>
+    <row r="22" spans="6:33" ht="19">
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="29"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="27"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="26"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="45"/>
       <c r="U22">
         <v>2</v>
       </c>
-      <c r="W22" s="25"/>
-      <c r="X22" s="26"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="45"/>
       <c r="Y22">
         <v>2</v>
       </c>
-      <c r="AA22" s="39" t="s">
+      <c r="AA22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="38">
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="34">
         <v>0</v>
       </c>
-      <c r="AD22" s="31" t="s">
+      <c r="AD22" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="6:30" ht="19">
-      <c r="F23" s="27"/>
-      <c r="G23" s="29"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="48"/>
+    </row>
+    <row r="23" spans="6:33" ht="19">
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="29"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="27"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="20" t="s">
         <v>53</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="45"/>
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="W23" s="25"/>
-      <c r="X23" s="26"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="45"/>
       <c r="Y23">
         <v>1</v>
       </c>
-      <c r="AA23" s="41" t="s">
+      <c r="AA23" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="38">
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="34">
         <v>0</v>
       </c>
-      <c r="AD23" s="31" t="s">
+      <c r="AD23" s="28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="6:30" ht="19">
-      <c r="F24" s="27"/>
-      <c r="G24" s="29"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="48"/>
+    </row>
+    <row r="24" spans="6:33" ht="19">
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="29"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
       <c r="M24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1621,36 +1897,37 @@
       <c r="Q24">
         <v>-1</v>
       </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="45"/>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="W24" s="25"/>
-      <c r="X24" s="26"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="45"/>
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="AA24" s="41" t="s">
+      <c r="AA24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="38">
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="34">
         <v>1</v>
       </c>
-      <c r="AD24" s="31" t="s">
+      <c r="AD24" s="28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="6:30" ht="19">
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="25" spans="6:33" ht="19">
       <c r="G25" s="3"/>
       <c r="H25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="42">
         <v>12</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -1662,38 +1939,38 @@
       </c>
       <c r="T25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="31" t="s">
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="6:30" ht="19">
+    <row r="26" spans="6:33" ht="19">
       <c r="G26" s="3"/>
       <c r="H26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="29"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P26" s="7"/>
       <c r="T26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="31"/>
-    </row>
-    <row r="27" spans="6:30" ht="19">
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="28"/>
+    </row>
+    <row r="27" spans="6:33" ht="19">
       <c r="G27" s="3"/>
       <c r="H27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="29"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="10" t="s">
         <v>13</v>
       </c>
@@ -1701,81 +1978,481 @@
       <c r="T27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
-    <row r="28" spans="6:30" ht="19">
+    <row r="28" spans="6:33" ht="19">
       <c r="G28" s="3"/>
       <c r="H28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="29"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="6:30" ht="19">
+    <row r="29" spans="6:33" ht="19">
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="42">
         <v>11</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="6:30" ht="19">
+    <row r="30" spans="6:33" ht="19">
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="29"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="6:30" ht="19">
+    <row r="31" spans="6:33" ht="19">
       <c r="H31" s="8"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="29"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:30" ht="19">
+    <row r="32" spans="6:33" ht="19">
       <c r="H32" s="8"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="30"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="12:13" ht="19">
+    <row r="33" spans="2:13" ht="19">
       <c r="L33" s="11"/>
       <c r="M33" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="12:13" ht="19">
+    <row r="34" spans="2:13" ht="19">
       <c r="L34" s="14"/>
       <c r="M34" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="12:13" ht="19">
+    <row r="35" spans="2:13" ht="19">
       <c r="L35" s="11"/>
       <c r="M35" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="12:13" ht="19">
+    <row r="36" spans="2:13" ht="19">
       <c r="L36" s="13"/>
       <c r="M36" s="12" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="38" spans="2:13">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="47"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="58"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="47"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="58"/>
+      <c r="G40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="47"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="58"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:13" ht="19">
+      <c r="B42" s="47"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="58"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="19">
+      <c r="B43" s="47"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="19">
+      <c r="B44" s="47"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="59"/>
+      <c r="G44" s="44">
+        <v>3</v>
+      </c>
+      <c r="H44" s="46">
+        <v>3</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="19">
+      <c r="B45" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="58"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="19">
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="58"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="19">
+      <c r="B47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="58"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="19">
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="58"/>
+      <c r="G48" s="44">
+        <v>2</v>
+      </c>
+      <c r="H48" s="46">
+        <v>2</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="19">
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="44"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="19">
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="59"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="19">
+      <c r="B51" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="58"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="19">
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="58"/>
+      <c r="G52" s="44">
+        <v>1</v>
+      </c>
+      <c r="H52" s="46">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="19">
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="58"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="19">
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="58"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="19">
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="44"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="19">
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="59"/>
+      <c r="G56" s="44">
+        <v>0</v>
+      </c>
+      <c r="H56" s="46">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="19">
+      <c r="B57" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="58"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="19">
+      <c r="B58" s="47"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="58"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="19">
+      <c r="B59" s="47"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="58"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="18">
+      <c r="B60" s="47"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="58"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="47"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="47"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="59"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="58"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="41"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="58"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="41"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="58"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="41"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="58"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="41"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="41"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="59"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="C70" s="27"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="C71" s="9"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="2:4" ht="19">
+      <c r="C78" s="5"/>
+      <c r="D78" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="19">
+      <c r="C79" s="3"/>
+      <c r="D79" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="19">
+      <c r="B80" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="46">
+        <v>0</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="19">
+      <c r="B81" s="44"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="19">
+      <c r="B82" s="44"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="19">
+      <c r="B83" s="44"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="18">
+      <c r="C84" s="3"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="63">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="AE7:AE10"/>
+    <mergeCell ref="AF7:AF10"/>
+    <mergeCell ref="AF15:AF18"/>
+    <mergeCell ref="AF19:AF22"/>
+    <mergeCell ref="AE15:AE18"/>
+    <mergeCell ref="AE19:AE22"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="X21:X24"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K32"/>
     <mergeCell ref="AB21:AB24"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F16"/>
@@ -1792,22 +2469,6 @@
     <mergeCell ref="K17:K20"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="X21:X24"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E8BCA-9CBF-0442-A798-1EB2CB049B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870E1C9-0F1A-9949-928C-47625C0E59C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18200" yWindow="2220" windowWidth="20900" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>p+0</t>
   </si>
@@ -385,6 +385,22 @@
   </si>
   <si>
     <t>0x...05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -692,13 +708,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,74 +840,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
-  <dimension ref="B3:AG85"/>
+  <dimension ref="B3:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1252,9 +1300,9 @@
       <c r="M5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="48"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="40"/>
     </row>
     <row r="6" spans="3:33" ht="19">
       <c r="G6" s="3"/>
@@ -1266,9 +1314,9 @@
         <v>32</v>
       </c>
       <c r="X6" s="6"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="48"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="40"/>
     </row>
     <row r="7" spans="3:33" ht="19">
       <c r="G7" s="3"/>
@@ -1283,10 +1331,10 @@
       <c r="AE7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="51">
+      <c r="AF7" s="56">
         <v>20</v>
       </c>
-      <c r="AG7" s="48" t="s">
+      <c r="AG7" s="40" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1302,25 +1350,25 @@
       <c r="P8" s="6"/>
       <c r="X8" s="3"/>
       <c r="AE8" s="55"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="48" t="s">
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="3:33" ht="19">
-      <c r="F9" s="41">
+      <c r="F9" s="53">
         <v>3</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="59">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="59">
         <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -1332,19 +1380,19 @@
         <v>15</v>
       </c>
       <c r="AE9" s="55"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="48" t="s">
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="3:33" ht="19">
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="59"/>
       <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1358,19 +1406,19 @@
         <v>14</v>
       </c>
       <c r="AE10" s="55"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="48" t="s">
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="3:33" ht="19">
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1383,9 +1431,9 @@
       <c r="Y11">
         <v>13</v>
       </c>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="48"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="40"/>
     </row>
     <row r="12" spans="3:33" ht="19">
       <c r="C12" s="4">
@@ -1394,13 +1442,13 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1416,9 +1464,9 @@
       <c r="Y12">
         <v>12</v>
       </c>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="48"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="40"/>
     </row>
     <row r="13" spans="3:33" ht="19">
       <c r="C13" s="16" t="s">
@@ -1427,19 +1475,19 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="53">
         <v>2</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="59">
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="59">
         <v>15</v>
       </c>
       <c r="M13" s="10" t="s">
@@ -1449,23 +1497,23 @@
       <c r="Q13">
         <v>10</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="45"/>
+      <c r="T13" s="58"/>
       <c r="U13">
         <v>11</v>
       </c>
-      <c r="W13" s="44" t="s">
+      <c r="W13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="45"/>
+      <c r="X13" s="58"/>
       <c r="Y13">
         <v>11</v>
       </c>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="48"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="40"/>
     </row>
     <row r="14" spans="3:33" ht="19">
       <c r="C14" s="16" t="s">
@@ -1474,13 +1522,13 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="59"/>
       <c r="M14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1488,19 +1536,19 @@
       <c r="Q14">
         <v>9</v>
       </c>
-      <c r="S14" s="44"/>
-      <c r="T14" s="45"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="58"/>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="58"/>
       <c r="Y14">
         <v>10</v>
       </c>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="48"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="40"/>
     </row>
     <row r="15" spans="3:33" ht="19">
       <c r="C15" s="16" t="s">
@@ -1509,13 +1557,13 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1528,21 +1576,21 @@
       <c r="Q15">
         <v>8</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="45"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="58"/>
       <c r="U15">
         <v>9</v>
       </c>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="58"/>
       <c r="Y15">
         <v>9</v>
       </c>
       <c r="AE15" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="48"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="40"/>
     </row>
     <row r="16" spans="3:33" ht="19">
       <c r="C16" s="16" t="s">
@@ -1551,60 +1599,60 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="59"/>
       <c r="M16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="50">
         <v>2000</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="45"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="58"/>
       <c r="U16">
         <v>8</v>
       </c>
-      <c r="W16" s="44"/>
-      <c r="X16" s="45"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="58"/>
       <c r="Y16">
         <v>8</v>
       </c>
       <c r="AE16" s="57"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="48"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="40"/>
     </row>
     <row r="17" spans="6:33" ht="19">
-      <c r="F17" s="41">
+      <c r="F17" s="53">
         <v>1</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="59">
         <v>8</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="59">
         <v>14</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="46"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="50"/>
       <c r="Q17">
         <v>6</v>
       </c>
@@ -1619,22 +1667,22 @@
         <v>7</v>
       </c>
       <c r="AE17" s="57"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="48"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="40"/>
     </row>
     <row r="18" spans="6:33" ht="19">
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="59"/>
       <c r="M18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="46"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="50"/>
       <c r="Q18">
         <v>5</v>
       </c>
@@ -1657,22 +1705,22 @@
         <v>24</v>
       </c>
       <c r="AE18" s="57"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="48"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="40"/>
     </row>
     <row r="19" spans="6:33" ht="19">
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="46"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="50"/>
       <c r="Q19">
         <v>4</v>
       </c>
@@ -1695,21 +1743,21 @@
       <c r="AE19" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="48"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="40"/>
     </row>
     <row r="20" spans="6:33" ht="19">
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="53" t="s">
         <v>50</v>
       </c>
       <c r="P20" s="19">
@@ -1739,53 +1787,53 @@
         <v>49</v>
       </c>
       <c r="AE20" s="57"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="48"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="40"/>
     </row>
     <row r="21" spans="6:33" ht="19">
-      <c r="F21" s="41">
+      <c r="F21" s="53">
         <v>0</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="59">
         <v>9</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="59">
         <v>13</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="41"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="19">
         <v>0</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="45"/>
+      <c r="T21" s="58"/>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="W21" s="44" t="s">
+      <c r="W21" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="45"/>
+      <c r="X21" s="58"/>
       <c r="Y21">
         <v>3</v>
       </c>
       <c r="AA21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AB21" s="38" t="s">
+      <c r="AB21" s="61" t="s">
         <v>62</v>
       </c>
       <c r="AC21" s="34">
@@ -1795,41 +1843,41 @@
         <v>48</v>
       </c>
       <c r="AE21" s="57"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="48"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="40"/>
     </row>
     <row r="22" spans="6:33" ht="19">
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="41"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="45"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="58"/>
       <c r="U22">
         <v>2</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="X22" s="45"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="58"/>
       <c r="Y22">
         <v>2</v>
       </c>
       <c r="AA22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AB22" s="39"/>
+      <c r="AB22" s="62"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
@@ -1837,59 +1885,59 @@
         <v>47</v>
       </c>
       <c r="AE22" s="57"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="48"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="40"/>
     </row>
     <row r="23" spans="6:33" ht="19">
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="59"/>
       <c r="M23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="41"/>
+      <c r="O23" s="53"/>
       <c r="P23" s="20" t="s">
         <v>53</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="45"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="58"/>
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="58"/>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="AA23" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AB23" s="39"/>
+      <c r="AB23" s="62"/>
       <c r="AC23" s="34">
         <v>0</v>
       </c>
       <c r="AD23" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="48"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="40"/>
     </row>
     <row r="24" spans="6:33" ht="19">
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1897,20 +1945,20 @@
       <c r="Q24">
         <v>-1</v>
       </c>
-      <c r="S24" s="44"/>
-      <c r="T24" s="45"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="58"/>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="58"/>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="AA24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="40"/>
+      <c r="AB24" s="63"/>
       <c r="AC24" s="34">
         <v>1</v>
       </c>
@@ -1924,10 +1972,10 @@
       <c r="H25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="59">
         <v>12</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -1951,8 +1999,8 @@
       <c r="H26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1969,8 +2017,8 @@
       <c r="H27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="10" t="s">
         <v>13</v>
       </c>
@@ -1983,8 +2031,8 @@
       <c r="H28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="10" t="s">
         <v>14</v>
       </c>
@@ -1992,10 +2040,10 @@
     <row r="29" spans="6:33" ht="19">
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="59">
         <v>11</v>
       </c>
       <c r="M29" s="10" t="s">
@@ -2005,24 +2053,24 @@
     <row r="30" spans="6:33" ht="19">
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="59"/>
       <c r="M30" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="6:33" ht="19">
       <c r="H31" s="8"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="6:33" ht="19">
       <c r="H32" s="8"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="43"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="10" t="s">
         <v>0</v>
       </c>
@@ -2055,43 +2103,44 @@
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="47"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="47"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="47"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="47"/>
       <c r="G40" s="25" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="47" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="47"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="47"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="47"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="58"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="47"/>
       <c r="H42" s="3"/>
       <c r="I42" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="47"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="59" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="3"/>
@@ -2100,13 +2149,13 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="47"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="59"/>
-      <c r="G44" s="44">
+      <c r="B44" s="52"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+      <c r="G44" s="49">
         <v>3</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="50">
         <v>3</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -2114,45 +2163,45 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="58"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="46"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="47"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="47"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="58"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="46"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="47"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="19">
-      <c r="B47" s="47"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="58"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="46"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="47"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
       <c r="I47" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="47"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="58"/>
-      <c r="G48" s="44">
+      <c r="B48" s="52"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="47"/>
+      <c r="G48" s="49">
         <v>2</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="50">
         <v>2</v>
       </c>
       <c r="I48" s="10" t="s">
@@ -2160,47 +2209,47 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="19">
-      <c r="B49" s="47"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="59" t="s">
+      <c r="B49" s="52"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="46"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
       <c r="I49" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="19">
-      <c r="B50" s="47"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="59"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="46"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="19">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="58"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="46"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="47"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
       <c r="I51" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="19">
-      <c r="B52" s="47"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="58"/>
-      <c r="G52" s="44">
+      <c r="B52" s="52"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="47"/>
+      <c r="G52" s="49">
         <v>1</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="50">
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
@@ -2208,45 +2257,45 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="19">
-      <c r="B53" s="47"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="58"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="46"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="47"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="19">
-      <c r="B54" s="47"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="58"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="46"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="47"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
       <c r="I54" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="19">
-      <c r="B55" s="47"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="59" t="s">
+      <c r="B55" s="52"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="46"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="19">
-      <c r="B56" s="47"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="59"/>
-      <c r="G56" s="44">
+      <c r="B56" s="52"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
+      <c r="G56" s="49">
         <v>0</v>
       </c>
-      <c r="H56" s="46">
+      <c r="H56" s="50">
         <v>0</v>
       </c>
       <c r="I56" s="10" t="s">
@@ -2254,91 +2303,91 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="19">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="58"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="47"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="19">
-      <c r="B58" s="47"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="58"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="46"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="47"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="19">
-      <c r="B59" s="47"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="58"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="46"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="47"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="18">
-      <c r="B60" s="47"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="47"/>
       <c r="H60" s="3"/>
       <c r="I60" s="10"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="47"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="59" t="s">
+      <c r="B61" s="52"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51" t="s">
         <v>73</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="47"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="51"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="58"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="47"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="41"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="58"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="47"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="41"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="58"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="47"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="41"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="58"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="47"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="41"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="59" t="s">
+      <c r="B67" s="53"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="51" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="41"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="51"/>
     </row>
     <row r="69" spans="2:4">
       <c r="C69" s="26"/>
@@ -2365,94 +2414,207 @@
       </c>
     </row>
     <row r="80" spans="2:4" ht="19">
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="46">
+      <c r="C80" s="50">
         <v>0</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="19">
-      <c r="B81" s="44"/>
-      <c r="C81" s="46"/>
+    <row r="81" spans="2:7" ht="19">
+      <c r="B81" s="49"/>
+      <c r="C81" s="50"/>
       <c r="D81" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="19">
-      <c r="B82" s="44"/>
-      <c r="C82" s="46"/>
+    <row r="82" spans="2:7" ht="19">
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="19">
-      <c r="B83" s="44"/>
-      <c r="C83" s="46"/>
+    <row r="83" spans="2:7" ht="19">
+      <c r="B83" s="49"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="18">
+    <row r="84" spans="2:7" ht="18">
       <c r="C84" s="3"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:7">
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
     </row>
+    <row r="89" spans="2:7">
+      <c r="C89" s="5"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="48"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="67"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="48"/>
+      <c r="G91" s="64"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="67"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="48"/>
+      <c r="G92" s="65"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="67"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="48"/>
+      <c r="G93" s="65"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="67"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="66"/>
+      <c r="G94" s="65"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="67"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="66"/>
+      <c r="G95" s="54"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="67"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="66"/>
+      <c r="G96" s="39"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="67"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="66"/>
+      <c r="G97" s="39"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="67"/>
+      <c r="C98" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="48"/>
+      <c r="G98" s="39"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="67"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="48"/>
+      <c r="G99" s="39"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="67"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="66"/>
+      <c r="G100" s="39"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="67"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="66"/>
+      <c r="G101" s="39"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="67"/>
+      <c r="C102" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="48"/>
+      <c r="G102" s="39"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="67"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="48"/>
+      <c r="G103" s="39"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="67"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="66"/>
+      <c r="G104" s="39"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="67"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="66"/>
+      <c r="G105" s="39"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="C106" s="38"/>
+      <c r="G106" s="39"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="C107" s="9"/>
+      <c r="G107" s="39"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="G108" s="39"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="G109" s="39"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="G110" s="39"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="G111" s="39"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="G112" s="39"/>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113" s="39"/>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="39"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="39"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="39"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="39"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="39"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="AE7:AE10"/>
-    <mergeCell ref="AF7:AF10"/>
-    <mergeCell ref="AF15:AF18"/>
-    <mergeCell ref="AF19:AF22"/>
-    <mergeCell ref="AE15:AE18"/>
-    <mergeCell ref="AE19:AE22"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="X21:X24"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K32"/>
+  <mergeCells count="68">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B90:B105"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="G91:G95"/>
     <mergeCell ref="AB21:AB24"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F16"/>
@@ -2469,6 +2631,53 @@
     <mergeCell ref="K17:K20"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="X21:X24"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="AE7:AE10"/>
+    <mergeCell ref="AF7:AF10"/>
+    <mergeCell ref="AF15:AF18"/>
+    <mergeCell ref="AF19:AF22"/>
+    <mergeCell ref="AE15:AE18"/>
+    <mergeCell ref="AE19:AE22"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870E1C9-0F1A-9949-928C-47625C0E59C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17787EE9-1B21-EA47-99BC-83FC58A09846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>p+0</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>matA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buf_len: 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,62 +885,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
-  <dimension ref="B3:AG120"/>
+  <dimension ref="B3:AG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G152" sqref="G123:G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1328,10 +1358,10 @@
         <v>33</v>
       </c>
       <c r="X7" s="5"/>
-      <c r="AE7" s="55" t="s">
+      <c r="AE7" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="56">
+      <c r="AF7" s="68">
         <v>20</v>
       </c>
       <c r="AG7" s="40" t="s">
@@ -1349,26 +1379,26 @@
       </c>
       <c r="P8" s="6"/>
       <c r="X8" s="3"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="56"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="68"/>
       <c r="AG8" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="3:33" ht="19">
-      <c r="F9" s="53">
+      <c r="F9" s="62">
         <v>3</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="63">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="63">
         <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -1379,20 +1409,20 @@
       <c r="Y9">
         <v>15</v>
       </c>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="56"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="68"/>
       <c r="AG9" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="3:33" ht="19">
-      <c r="F10" s="53"/>
-      <c r="G10" s="59"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="59"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1405,20 +1435,20 @@
       <c r="Y10">
         <v>14</v>
       </c>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="68"/>
       <c r="AG10" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="3:33" ht="19">
-      <c r="F11" s="53"/>
-      <c r="G11" s="59"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="59"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1442,13 +1472,13 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="59"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="59"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1475,19 +1505,19 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="62">
         <v>2</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="63">
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="63">
         <v>15</v>
       </c>
       <c r="M13" s="10" t="s">
@@ -1497,17 +1527,17 @@
       <c r="Q13">
         <v>10</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="58"/>
+      <c r="T13" s="66"/>
       <c r="U13">
         <v>11</v>
       </c>
-      <c r="W13" s="49" t="s">
+      <c r="W13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="58"/>
+      <c r="X13" s="66"/>
       <c r="Y13">
         <v>11</v>
       </c>
@@ -1522,13 +1552,13 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="59"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="59"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1536,13 +1566,13 @@
       <c r="Q14">
         <v>9</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="58"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="66"/>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="W14" s="49"/>
-      <c r="X14" s="58"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="66"/>
       <c r="Y14">
         <v>10</v>
       </c>
@@ -1557,13 +1587,13 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="59"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="59"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1576,20 +1606,20 @@
       <c r="Q15">
         <v>8</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="58"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="66"/>
       <c r="U15">
         <v>9</v>
       </c>
-      <c r="W15" s="49"/>
-      <c r="X15" s="58"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="66"/>
       <c r="Y15">
         <v>9</v>
       </c>
-      <c r="AE15" s="57" t="s">
+      <c r="AE15" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="56"/>
+      <c r="AF15" s="68"/>
       <c r="AG15" s="40"/>
     </row>
     <row r="16" spans="3:33" ht="19">
@@ -1599,60 +1629,60 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="59"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="54">
         <v>2000</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="58"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="66"/>
       <c r="U16">
         <v>8</v>
       </c>
-      <c r="W16" s="49"/>
-      <c r="X16" s="58"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="66"/>
       <c r="Y16">
         <v>8</v>
       </c>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="56"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="68"/>
       <c r="AG16" s="40"/>
     </row>
     <row r="17" spans="6:33" ht="19">
-      <c r="F17" s="53">
+      <c r="F17" s="62">
         <v>1</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="63">
         <v>8</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="63">
         <v>14</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="54"/>
       <c r="Q17">
         <v>6</v>
       </c>
@@ -1666,23 +1696,23 @@
       <c r="Y17">
         <v>7</v>
       </c>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="56"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="68"/>
       <c r="AG17" s="40"/>
     </row>
     <row r="18" spans="6:33" ht="19">
-      <c r="F18" s="53"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="59"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="50"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="54"/>
       <c r="Q18">
         <v>5</v>
       </c>
@@ -1704,23 +1734,23 @@
       <c r="AD18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="56"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="68"/>
       <c r="AG18" s="40"/>
     </row>
     <row r="19" spans="6:33" ht="19">
-      <c r="F19" s="53"/>
-      <c r="G19" s="59"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="59"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="50"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="54"/>
       <c r="Q19">
         <v>4</v>
       </c>
@@ -1740,24 +1770,24 @@
       <c r="AB19" s="28"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="28"/>
-      <c r="AE19" s="57" t="s">
+      <c r="AE19" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="AF19" s="56"/>
+      <c r="AF19" s="68"/>
       <c r="AG19" s="40"/>
     </row>
     <row r="20" spans="6:33" ht="19">
-      <c r="F20" s="53"/>
-      <c r="G20" s="59"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="53" t="s">
+      <c r="O20" s="62" t="s">
         <v>50</v>
       </c>
       <c r="P20" s="19">
@@ -1786,54 +1816,54 @@
       <c r="AD20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="56"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="68"/>
       <c r="AG20" s="40"/>
     </row>
     <row r="21" spans="6:33" ht="19">
-      <c r="F21" s="53">
+      <c r="F21" s="62">
         <v>0</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="63">
         <v>9</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="63">
         <v>13</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="53"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="19">
         <v>0</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="58"/>
+      <c r="T21" s="66"/>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="W21" s="49" t="s">
+      <c r="W21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="58"/>
+      <c r="X21" s="66"/>
       <c r="Y21">
         <v>3</v>
       </c>
       <c r="AA21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AB21" s="61" t="s">
+      <c r="AB21" s="59" t="s">
         <v>62</v>
       </c>
       <c r="AC21" s="34">
@@ -1842,84 +1872,84 @@
       <c r="AD21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="56"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="68"/>
       <c r="AG21" s="40"/>
     </row>
     <row r="22" spans="6:33" ht="19">
-      <c r="F22" s="53"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="53"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="58"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="66"/>
       <c r="U22">
         <v>2</v>
       </c>
-      <c r="W22" s="49"/>
-      <c r="X22" s="58"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="66"/>
       <c r="Y22">
         <v>2</v>
       </c>
       <c r="AA22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AB22" s="62"/>
+      <c r="AB22" s="60"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
       <c r="AD22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="56"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="68"/>
       <c r="AG22" s="40"/>
     </row>
     <row r="23" spans="6:33" ht="19">
-      <c r="F23" s="53"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="59"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="53"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="20" t="s">
         <v>53</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="S23" s="49"/>
-      <c r="T23" s="58"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="66"/>
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="W23" s="49"/>
-      <c r="X23" s="58"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="66"/>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="AA23" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AB23" s="62"/>
+      <c r="AB23" s="60"/>
       <c r="AC23" s="34">
         <v>0</v>
       </c>
@@ -1931,13 +1961,13 @@
       <c r="AG23" s="40"/>
     </row>
     <row r="24" spans="6:33" ht="19">
-      <c r="F24" s="53"/>
-      <c r="G24" s="59"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="59"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="10" t="s">
         <v>10</v>
       </c>
@@ -1945,20 +1975,20 @@
       <c r="Q24">
         <v>-1</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="58"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="66"/>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="W24" s="49"/>
-      <c r="X24" s="58"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="66"/>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="AA24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="63"/>
+      <c r="AB24" s="61"/>
       <c r="AC24" s="34">
         <v>1</v>
       </c>
@@ -1972,10 +2002,10 @@
       <c r="H25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="63">
         <v>12</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -1999,8 +2029,8 @@
       <c r="H26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="59"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
       <c r="M26" s="10" t="s">
         <v>12</v>
       </c>
@@ -2017,8 +2047,8 @@
       <c r="H27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="59"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="10" t="s">
         <v>13</v>
       </c>
@@ -2031,8 +2061,8 @@
       <c r="H28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="59"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="10" t="s">
         <v>14</v>
       </c>
@@ -2040,10 +2070,10 @@
     <row r="29" spans="6:33" ht="19">
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="63">
         <v>11</v>
       </c>
       <c r="M29" s="10" t="s">
@@ -2053,24 +2083,24 @@
     <row r="30" spans="6:33" ht="19">
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="59"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="6:33" ht="19">
       <c r="H31" s="8"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="59"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
       <c r="M31" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="6:33" ht="19">
       <c r="H32" s="8"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="60"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="10" t="s">
         <v>0</v>
       </c>
@@ -2103,14 +2133,14 @@
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="52"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="47"/>
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="52"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="47"/>
       <c r="G40" s="25" t="s">
         <v>29</v>
@@ -2123,14 +2153,14 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="52"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="47"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="52"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="47"/>
       <c r="H42" s="3"/>
       <c r="I42" s="10" t="s">
@@ -2138,9 +2168,9 @@
       </c>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="52"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="71" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="3"/>
@@ -2149,13 +2179,13 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="52"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="G44" s="49">
+      <c r="B44" s="70"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="71"/>
+      <c r="G44" s="65">
         <v>3</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="54">
         <v>3</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -2163,45 +2193,45 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="47"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="52"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="47"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="54"/>
       <c r="I46" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="19">
-      <c r="B47" s="52"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="47"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="54"/>
       <c r="I47" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="52"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="47"/>
-      <c r="G48" s="49">
+      <c r="G48" s="65">
         <v>2</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="54">
         <v>2</v>
       </c>
       <c r="I48" s="10" t="s">
@@ -2209,47 +2239,47 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="19">
-      <c r="B49" s="52"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="51" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="54"/>
       <c r="I49" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="19">
-      <c r="B50" s="52"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="51"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="71"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="19">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="47"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="54"/>
       <c r="I51" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="19">
-      <c r="B52" s="52"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="47"/>
-      <c r="G52" s="49">
+      <c r="G52" s="65">
         <v>1</v>
       </c>
-      <c r="H52" s="50">
+      <c r="H52" s="54">
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
@@ -2257,45 +2287,45 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="19">
-      <c r="B53" s="52"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="47"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="54"/>
       <c r="I53" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="19">
-      <c r="B54" s="52"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="47"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="50"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="54"/>
       <c r="I54" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="19">
-      <c r="B55" s="52"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="51" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="50"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="54"/>
       <c r="I55" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="19">
-      <c r="B56" s="52"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51"/>
-      <c r="G56" s="49">
+      <c r="B56" s="70"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="71"/>
+      <c r="G56" s="65">
         <v>0</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56" s="54">
         <v>0</v>
       </c>
       <c r="I56" s="10" t="s">
@@ -2303,91 +2333,91 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="19">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="47"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="54"/>
       <c r="I57" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="19">
-      <c r="B58" s="52"/>
-      <c r="C58" s="50"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="47"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="54"/>
       <c r="I58" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="19">
-      <c r="B59" s="52"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="47"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="50"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="54"/>
       <c r="I59" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="18">
-      <c r="B60" s="52"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="47"/>
       <c r="H60" s="3"/>
       <c r="I60" s="10"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="52"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51" t="s">
+      <c r="B61" s="70"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="71" t="s">
         <v>73</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="52"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="71"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="47"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="53"/>
-      <c r="C64" s="50"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="47"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="53"/>
-      <c r="C65" s="50"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="47"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="53"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="47"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="53"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="51" t="s">
+      <c r="B67" s="62"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="71" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="53"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="71"/>
     </row>
     <row r="69" spans="2:4">
       <c r="C69" s="26"/>
@@ -2414,10 +2444,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" ht="19">
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80" s="54">
         <v>0</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -2425,22 +2455,22 @@
       </c>
     </row>
     <row r="81" spans="2:7" ht="19">
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="19">
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="19">
-      <c r="B83" s="49"/>
-      <c r="C83" s="50"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="10" t="s">
         <v>72</v>
       </c>
@@ -2458,107 +2488,107 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="56" t="s">
         <v>99</v>
       </c>
       <c r="D90" s="48"/>
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="67"/>
-      <c r="C91" s="65"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="48"/>
-      <c r="G91" s="64"/>
+      <c r="G91" s="56"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="67"/>
-      <c r="C92" s="65"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="48"/>
-      <c r="G92" s="65"/>
+      <c r="G92" s="57"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="67"/>
-      <c r="C93" s="65"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="48"/>
-      <c r="G93" s="65"/>
+      <c r="G93" s="57"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="67"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="G94" s="65"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="53"/>
+      <c r="G94" s="57"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="67"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="66"/>
-      <c r="G95" s="54"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="53"/>
+      <c r="G95" s="58"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="67"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="66"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="53"/>
       <c r="G96" s="39"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="67"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="66"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="53"/>
       <c r="G97" s="39"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="67"/>
-      <c r="C98" s="50" t="s">
+      <c r="B98" s="55"/>
+      <c r="C98" s="54" t="s">
         <v>101</v>
       </c>
       <c r="D98" s="48"/>
       <c r="G98" s="39"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="67"/>
-      <c r="C99" s="50"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="48"/>
       <c r="G99" s="39"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="67"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="66"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="53"/>
       <c r="G100" s="39"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="67"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="66"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="53"/>
       <c r="G101" s="39"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="67"/>
-      <c r="C102" s="50" t="s">
+      <c r="B102" s="55"/>
+      <c r="C102" s="54" t="s">
         <v>100</v>
       </c>
       <c r="D102" s="48"/>
       <c r="G102" s="39"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="67"/>
-      <c r="C103" s="50"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="48"/>
       <c r="G103" s="39"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="67"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="66"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="53"/>
       <c r="G104" s="39"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="67"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="66"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="53"/>
       <c r="G105" s="39"/>
     </row>
     <row r="106" spans="2:7">
@@ -2584,37 +2614,258 @@
     <row r="112" spans="2:7">
       <c r="G112" s="39"/>
     </row>
-    <row r="113" spans="7:7">
+    <row r="113" spans="2:7">
       <c r="G113" s="39"/>
     </row>
-    <row r="114" spans="7:7">
+    <row r="114" spans="2:7">
       <c r="G114" s="39"/>
     </row>
-    <row r="115" spans="7:7">
+    <row r="115" spans="2:7">
       <c r="G115" s="39"/>
     </row>
-    <row r="116" spans="7:7">
+    <row r="116" spans="2:7">
       <c r="G116" s="39"/>
     </row>
-    <row r="117" spans="7:7">
+    <row r="117" spans="2:7">
       <c r="G117" s="39"/>
     </row>
-    <row r="118" spans="7:7">
+    <row r="118" spans="2:7">
       <c r="G118" s="39"/>
     </row>
-    <row r="119" spans="7:7">
+    <row r="119" spans="2:7">
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="7:7">
+    <row r="120" spans="2:7">
       <c r="G120" s="6"/>
     </row>
+    <row r="122" spans="2:7">
+      <c r="C122" s="5"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="50"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="55"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="50"/>
+      <c r="G124" s="56"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="55"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="50"/>
+      <c r="G125" s="57"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="55"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="50"/>
+      <c r="G126" s="57"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="55"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="53"/>
+      <c r="G127" s="57"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="55"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="53"/>
+      <c r="G128" s="58"/>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="55"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="53"/>
+      <c r="G129" s="49"/>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="55"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="53"/>
+      <c r="G130" s="49"/>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="55"/>
+      <c r="C131" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="50"/>
+      <c r="G131" s="49"/>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="55"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="50"/>
+      <c r="G132" s="49"/>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="55"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="53"/>
+      <c r="G133" s="49"/>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="55"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="53"/>
+      <c r="G134" s="49"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="72"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="50"/>
+      <c r="G135" s="49"/>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="73"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="50"/>
+      <c r="G136" s="49"/>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="73"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="53"/>
+      <c r="G137" s="49"/>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="73"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="53"/>
+      <c r="G138" s="49"/>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="C139" s="51"/>
+      <c r="G139" s="49"/>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="C140" s="51"/>
+      <c r="G140" s="49"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="C141" s="51"/>
+      <c r="G141" s="49"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="C142" s="51"/>
+      <c r="G142" s="49"/>
+      <c r="I142" s="49"/>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="C143" s="51"/>
+      <c r="G143" s="49"/>
+      <c r="I143" s="49"/>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="C144" s="51"/>
+      <c r="G144" s="49"/>
+      <c r="I144" s="49"/>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" s="51"/>
+      <c r="G145" s="49"/>
+      <c r="I145" s="49"/>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" s="51"/>
+      <c r="G146" s="49"/>
+      <c r="I146" s="49"/>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147" s="51"/>
+      <c r="G147" s="49"/>
+      <c r="I147" s="49"/>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148" s="51"/>
+      <c r="G148" s="49"/>
+      <c r="I148" s="49"/>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149" s="51"/>
+      <c r="G149" s="49"/>
+      <c r="I149" s="49"/>
+    </row>
+    <row r="150" spans="3:9">
+      <c r="G150" s="49"/>
+      <c r="I150" s="49"/>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="G151" s="49"/>
+      <c r="I151" s="49"/>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="G152" s="7"/>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="3:9">
+      <c r="G153" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B90:B105"/>
-    <mergeCell ref="C90:C97"/>
-    <mergeCell ref="G91:G95"/>
+  <mergeCells count="72">
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="AE7:AE10"/>
+    <mergeCell ref="AF7:AF10"/>
+    <mergeCell ref="AF15:AF18"/>
+    <mergeCell ref="AF19:AF22"/>
+    <mergeCell ref="AE15:AE18"/>
+    <mergeCell ref="AE19:AE22"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="W21:W24"/>
+    <mergeCell ref="X21:X24"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K32"/>
     <mergeCell ref="AB21:AB24"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F13:F16"/>
@@ -2631,53 +2882,11 @@
     <mergeCell ref="K17:K20"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="X21:X24"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="AE7:AE10"/>
-    <mergeCell ref="AF7:AF10"/>
-    <mergeCell ref="AF15:AF18"/>
-    <mergeCell ref="AF19:AF22"/>
-    <mergeCell ref="AE15:AE18"/>
-    <mergeCell ref="AE19:AE22"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B90:B105"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="G91:G95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17787EE9-1B21-EA47-99BC-83FC58A09846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA45FF0F-368B-034B-AE28-29F76DDD1CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
+    <workbookView xWindow="7980" yWindow="1740" windowWidth="31620" windowHeight="24860" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>p+0</t>
   </si>
@@ -413,6 +414,34 @@
   </si>
   <si>
     <t>buf_len: 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,6 +518,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -510,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -615,103 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -731,233 +671,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,16 +1236,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
-  <dimension ref="B3:AG153"/>
+  <dimension ref="B3:AG152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G152" sqref="G123:G152"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
@@ -1294,6 +1256,7 @@
     <col min="21" max="21" width="5.6640625" customWidth="1"/>
     <col min="22" max="22" width="4.33203125" customWidth="1"/>
     <col min="25" max="25" width="5.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="29" max="29" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1301,7 +1264,7 @@
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1310,7 +1273,7 @@
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1318,1500 +1281,1448 @@
       </c>
     </row>
     <row r="4" spans="3:33">
-      <c r="G4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="3:33" ht="19">
-      <c r="G5" s="3"/>
-      <c r="H5" s="10" t="s">
+      <c r="G4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="3:33" ht="20">
+      <c r="G5" s="2"/>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="40"/>
-    </row>
-    <row r="6" spans="3:33" ht="19">
-      <c r="G6" s="3"/>
-      <c r="H6" s="10" t="s">
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="24"/>
+    </row>
+    <row r="6" spans="3:33" ht="20">
+      <c r="G6" s="2"/>
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="10" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="40"/>
-    </row>
-    <row r="7" spans="3:33" ht="19">
-      <c r="G7" s="3"/>
-      <c r="H7" s="10" t="s">
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="24"/>
+    </row>
+    <row r="7" spans="3:33" ht="20">
+      <c r="G7" s="2"/>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="AE7" s="67" t="s">
+      <c r="X7" s="4"/>
+      <c r="AE7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="68">
+      <c r="AF7" s="41">
         <v>20</v>
       </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AG7" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="3:33" ht="19">
-      <c r="G8" s="3"/>
-      <c r="H8" s="10" t="s">
+    <row r="8" spans="3:33" ht="20">
+      <c r="G8" s="2"/>
+      <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="X8" s="3"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="40" t="s">
+      <c r="X8" s="2"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="3:33" ht="19">
-      <c r="F9" s="62">
+    <row r="9" spans="3:33" ht="20">
+      <c r="F9" s="34">
         <v>3</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="35">
         <v>6</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="35">
         <v>16</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="X9" s="17"/>
+      <c r="P9" s="4"/>
+      <c r="X9" s="13"/>
       <c r="Y9">
         <v>15</v>
       </c>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="40" t="s">
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="3:33" ht="19">
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="10" t="s">
+    <row r="10" spans="3:33" ht="20">
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="10" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="2"/>
       <c r="Q10">
         <v>13</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="X10" s="17"/>
+      <c r="X10" s="13"/>
       <c r="Y10">
         <v>14</v>
       </c>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="40" t="s">
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="3:33" ht="19">
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="10" t="s">
+    <row r="11" spans="3:33" ht="20">
+      <c r="C11" s="33"/>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="10" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="2"/>
       <c r="Q11">
         <v>12</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="X11" s="17"/>
+      <c r="T11" s="4"/>
+      <c r="X11" s="13"/>
       <c r="Y11">
         <v>13</v>
       </c>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="40"/>
-    </row>
-    <row r="12" spans="3:33" ht="19">
-      <c r="C12" s="4">
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="24"/>
+    </row>
+    <row r="12" spans="3:33" ht="20">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="10" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="17"/>
+      <c r="P12" s="13"/>
       <c r="Q12">
         <v>11</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="W12" s="21" t="s">
+      <c r="T12" s="2"/>
+      <c r="W12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="X12" s="18"/>
+      <c r="X12" s="14"/>
       <c r="Y12">
         <v>12</v>
       </c>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="40"/>
-    </row>
-    <row r="13" spans="3:33" ht="19">
-      <c r="C13" s="16" t="s">
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="24"/>
+    </row>
+    <row r="13" spans="3:33" ht="20">
+      <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="62">
+        <v>108</v>
+      </c>
+      <c r="F13" s="34">
         <v>2</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="35">
         <v>7</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="35">
         <v>15</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="17"/>
+      <c r="P13" s="13"/>
       <c r="Q13">
         <v>10</v>
       </c>
-      <c r="S13" s="65" t="s">
+      <c r="S13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="66"/>
+      <c r="T13" s="38"/>
       <c r="U13">
         <v>11</v>
       </c>
-      <c r="W13" s="65" t="s">
+      <c r="W13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="66"/>
+      <c r="X13" s="38"/>
       <c r="Y13">
         <v>11</v>
       </c>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="40"/>
-    </row>
-    <row r="14" spans="3:33" ht="19">
-      <c r="C14" s="16" t="s">
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="24"/>
+    </row>
+    <row r="14" spans="3:33" ht="20">
+      <c r="C14" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="10" t="s">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="17"/>
+      <c r="P14" s="13"/>
       <c r="Q14">
         <v>9</v>
       </c>
-      <c r="S14" s="65"/>
-      <c r="T14" s="66"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="38"/>
       <c r="Y14">
         <v>10</v>
       </c>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="40"/>
-    </row>
-    <row r="15" spans="3:33" ht="19">
-      <c r="C15" s="16" t="s">
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="24"/>
+    </row>
+    <row r="15" spans="3:33" ht="20">
+      <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="10" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="15">
         <v>1</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
-      <c r="S15" s="65"/>
-      <c r="T15" s="66"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
       <c r="U15">
         <v>9</v>
       </c>
-      <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
       <c r="Y15">
         <v>9</v>
       </c>
-      <c r="AE15" s="69" t="s">
+      <c r="AE15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="40"/>
-    </row>
-    <row r="16" spans="3:33" ht="19">
-      <c r="C16" s="16" t="s">
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="24"/>
+    </row>
+    <row r="16" spans="3:33" ht="20">
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="10" t="s">
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="62" t="s">
+      <c r="O16" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16" s="39">
         <v>2000</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
-      <c r="S16" s="65"/>
-      <c r="T16" s="66"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
       <c r="U16">
         <v>8</v>
       </c>
-      <c r="W16" s="65"/>
-      <c r="X16" s="66"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38"/>
       <c r="Y16">
         <v>8</v>
       </c>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="40"/>
-    </row>
-    <row r="17" spans="6:33" ht="19">
-      <c r="F17" s="62">
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="24"/>
+    </row>
+    <row r="17" spans="3:33" ht="20">
+      <c r="C17" s="21"/>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="34">
         <v>1</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="35">
         <v>8</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="35">
         <v>14</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="54"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="39"/>
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="23"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="19"/>
       <c r="U17">
         <v>7</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="23"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="19"/>
       <c r="Y17">
         <v>7</v>
       </c>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="40"/>
-    </row>
-    <row r="18" spans="6:33" ht="19">
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="10" t="s">
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="24"/>
+    </row>
+    <row r="18" spans="3:33" ht="20">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="10" t="s">
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="54"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="39"/>
       <c r="Q18">
         <v>5</v>
       </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="23"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="19"/>
       <c r="U18">
         <v>6</v>
       </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="23"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="19"/>
       <c r="Y18">
         <v>6</v>
       </c>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="29" t="s">
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="AD18" s="28" t="s">
+      <c r="AD18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="40"/>
-    </row>
-    <row r="19" spans="6:33" ht="19">
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="10" t="s">
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="24"/>
+    </row>
+    <row r="19" spans="3:33" ht="20">
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="10" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="54"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="39"/>
       <c r="Q19">
         <v>4</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="22"/>
+      <c r="T19" s="18"/>
       <c r="U19">
         <v>5</v>
       </c>
-      <c r="W19" s="21"/>
-      <c r="X19" s="24"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="20"/>
       <c r="Y19">
         <v>5</v>
       </c>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="69" t="s">
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="40"/>
-    </row>
-    <row r="20" spans="6:33" ht="19">
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="10" t="s">
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="24"/>
+    </row>
+    <row r="20" spans="3:33" ht="20">
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="10" t="s">
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="62" t="s">
+      <c r="O20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="15">
         <v>0</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="T20" s="22"/>
+      <c r="T20" s="18"/>
       <c r="U20">
         <v>4</v>
       </c>
-      <c r="W20" s="21" t="s">
+      <c r="W20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="18"/>
       <c r="Y20">
         <v>4</v>
       </c>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="28" t="s">
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="40"/>
-    </row>
-    <row r="21" spans="6:33" ht="19">
-      <c r="F21" s="62">
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="24"/>
+    </row>
+    <row r="21" spans="3:33" ht="20">
+      <c r="F21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="35">
         <v>9</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="35">
         <v>13</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="19">
+      <c r="O21" s="34"/>
+      <c r="P21" s="15">
         <v>0</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
-      <c r="S21" s="65" t="s">
+      <c r="S21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="66"/>
+      <c r="T21" s="38"/>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="W21" s="65" t="s">
+      <c r="W21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="66"/>
+      <c r="X21" s="38"/>
       <c r="Y21">
         <v>3</v>
       </c>
-      <c r="AA21" s="33" t="s">
+      <c r="AA21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AB21" s="59" t="s">
+      <c r="AB21" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AC21" s="55">
         <v>127</v>
       </c>
-      <c r="AD21" s="28" t="s">
+      <c r="AD21" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="40"/>
-    </row>
-    <row r="22" spans="6:33" ht="19">
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="10" t="s">
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="24"/>
+    </row>
+    <row r="22" spans="3:33" ht="20">
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="10" t="s">
+      <c r="K22" s="34"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="20" t="s">
+      <c r="O22" s="34"/>
+      <c r="P22" s="16" t="s">
         <v>54</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="S22" s="65"/>
-      <c r="T22" s="66"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
       <c r="U22">
         <v>2</v>
       </c>
-      <c r="W22" s="65"/>
-      <c r="X22" s="66"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
       <c r="Y22">
         <v>2</v>
       </c>
-      <c r="AA22" s="35" t="s">
+      <c r="AA22" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="34">
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="55">
         <v>0</v>
       </c>
-      <c r="AD22" s="28" t="s">
+      <c r="AD22" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="40"/>
-    </row>
-    <row r="23" spans="6:33" ht="19">
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="10" t="s">
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="24"/>
+    </row>
+    <row r="23" spans="3:33" ht="20">
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="10" t="s">
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="20" t="s">
+      <c r="O23" s="34"/>
+      <c r="P23" s="16" t="s">
         <v>53</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="S23" s="65"/>
-      <c r="T23" s="66"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="W23" s="65"/>
-      <c r="X23" s="66"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38"/>
       <c r="Y23">
         <v>1</v>
       </c>
-      <c r="AA23" s="36" t="s">
+      <c r="AA23" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="34">
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="55">
         <v>0</v>
       </c>
-      <c r="AD23" s="28" t="s">
+      <c r="AD23" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="40"/>
-    </row>
-    <row r="24" spans="6:33" ht="19">
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="10" t="s">
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="24"/>
+    </row>
+    <row r="24" spans="3:33" ht="20">
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="10" t="s">
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="3"/>
+      <c r="P24" s="2"/>
       <c r="Q24">
         <v>-1</v>
       </c>
-      <c r="S24" s="65"/>
-      <c r="T24" s="66"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="W24" s="65"/>
-      <c r="X24" s="66"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38"/>
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="AA24" s="36" t="s">
+      <c r="AA24" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="34">
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="55">
         <v>1</v>
       </c>
-      <c r="AD24" s="28" t="s">
+      <c r="AD24" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AF24" s="9"/>
-    </row>
-    <row r="25" spans="6:33" ht="19">
-      <c r="G25" s="3"/>
-      <c r="H25" s="10" t="s">
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="3:33" ht="20">
+      <c r="G25" s="2"/>
+      <c r="H25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="35">
         <v>12</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="2"/>
       <c r="Q25">
         <v>-2</v>
       </c>
-      <c r="T25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="28" t="s">
+      <c r="T25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="6:33" ht="19">
-      <c r="G26" s="3"/>
-      <c r="H26" s="10" t="s">
+    <row r="26" spans="3:33" ht="20">
+      <c r="G26" s="2"/>
+      <c r="H26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="10" t="s">
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="28"/>
-    </row>
-    <row r="27" spans="6:33" ht="19">
-      <c r="G27" s="3"/>
-      <c r="H27" s="10" t="s">
+      <c r="P26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="22"/>
+    </row>
+    <row r="27" spans="3:33" ht="20">
+      <c r="G27" s="2"/>
+      <c r="H27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="10" t="s">
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="AC27" s="6"/>
-    </row>
-    <row r="28" spans="6:33" ht="19">
-      <c r="G28" s="3"/>
-      <c r="H28" s="10" t="s">
+    </row>
+    <row r="28" spans="3:33" ht="20">
+      <c r="G28" s="2"/>
+      <c r="H28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="10" t="s">
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="6:33" ht="19">
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="K29" s="62" t="s">
+    <row r="29" spans="3:33" ht="20">
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="K29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="35">
         <v>11</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="6:33" ht="19">
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="10" t="s">
+    <row r="30" spans="3:33" ht="20">
+      <c r="H30" s="6"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="6:33" ht="19">
-      <c r="H31" s="8"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="10" t="s">
+    <row r="31" spans="3:33" ht="20">
+      <c r="H31" s="6"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:33" ht="19">
-      <c r="H32" s="8"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="10" t="s">
+    <row r="32" spans="3:33" ht="20">
+      <c r="H32" s="6"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="19">
-      <c r="L33" s="11"/>
-      <c r="M33" s="12" t="s">
+    <row r="33" spans="2:13" ht="20">
+      <c r="L33" s="8"/>
+      <c r="M33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="19">
-      <c r="L34" s="14"/>
-      <c r="M34" s="12" t="s">
+    <row r="34" spans="2:13" ht="20">
+      <c r="L34" s="11"/>
+      <c r="M34" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="19">
-      <c r="L35" s="11"/>
-      <c r="M35" s="12" t="s">
+    <row r="35" spans="2:13" ht="20">
+      <c r="L35" s="8"/>
+      <c r="M35" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="19">
-      <c r="L36" s="13"/>
-      <c r="M36" s="12" t="s">
+    <row r="36" spans="2:13" ht="20">
+      <c r="L36" s="10"/>
+      <c r="M36" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
-      <c r="C38" s="9"/>
-    </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="70"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="47"/>
-      <c r="L39" s="6"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="70"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="47"/>
-      <c r="G40" s="25" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="31"/>
+      <c r="G40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="70"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="47"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="70"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="47"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="10" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="31"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:13" ht="20">
+      <c r="B42" s="44"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="31"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="70"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="71" t="s">
+    <row r="43" spans="2:13" ht="20">
+      <c r="B43" s="44"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="70"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="71"/>
-      <c r="G44" s="65">
+    <row r="44" spans="2:13" ht="20">
+      <c r="B44" s="44"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="45"/>
+      <c r="G44" s="37">
         <v>3</v>
       </c>
-      <c r="H44" s="54">
+      <c r="H44" s="39">
         <v>3</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="70" t="s">
+    <row r="45" spans="2:13" ht="20">
+      <c r="B45" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="47"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="10" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="31"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="70"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="47"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="10" t="s">
+    <row r="46" spans="2:13" ht="20">
+      <c r="B46" s="44"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="31"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="19">
-      <c r="B47" s="70"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="47"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="10" t="s">
+    <row r="47" spans="2:13" ht="20">
+      <c r="B47" s="44"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="31"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="70"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="47"/>
-      <c r="G48" s="65">
+    <row r="48" spans="2:13" ht="20">
+      <c r="B48" s="44"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="31"/>
+      <c r="G48" s="37">
         <v>2</v>
       </c>
-      <c r="H48" s="54">
+      <c r="H48" s="39">
         <v>2</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="19">
-      <c r="B49" s="70"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="71" t="s">
+    <row r="49" spans="2:9" ht="20">
+      <c r="B49" s="44"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="10" t="s">
+      <c r="G49" s="37"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="19">
-      <c r="B50" s="70"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="71"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="10" t="s">
+    <row r="50" spans="2:9" ht="20">
+      <c r="B50" s="44"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="45"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="19">
-      <c r="B51" s="70" t="s">
+    <row r="51" spans="2:9" ht="20">
+      <c r="B51" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="47"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="10" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="31"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="19">
-      <c r="B52" s="70"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="47"/>
-      <c r="G52" s="65">
+    <row r="52" spans="2:9" ht="20">
+      <c r="B52" s="44"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="31"/>
+      <c r="G52" s="37">
         <v>1</v>
       </c>
-      <c r="H52" s="54">
+      <c r="H52" s="39">
         <v>1</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="19">
-      <c r="B53" s="70"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="47"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="10" t="s">
+    <row r="53" spans="2:9" ht="20">
+      <c r="B53" s="44"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="31"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="19">
-      <c r="B54" s="70"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="47"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="10" t="s">
+    <row r="54" spans="2:9" ht="20">
+      <c r="B54" s="44"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="31"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="19">
-      <c r="B55" s="70"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="71" t="s">
+    <row r="55" spans="2:9" ht="20">
+      <c r="B55" s="44"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="65"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="10" t="s">
+      <c r="G55" s="37"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="19">
-      <c r="B56" s="70"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="71"/>
-      <c r="G56" s="65">
+    <row r="56" spans="2:9" ht="20">
+      <c r="B56" s="44"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="45"/>
+      <c r="G56" s="37">
         <v>0</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H56" s="39">
         <v>0</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="19">
-      <c r="B57" s="70" t="s">
+    <row r="57" spans="2:9" ht="20">
+      <c r="B57" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="47"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="10" t="s">
+      <c r="C57" s="39"/>
+      <c r="D57" s="31"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="19">
-      <c r="B58" s="70"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="47"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="10" t="s">
+    <row r="58" spans="2:9" ht="20">
+      <c r="B58" s="44"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="31"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="19">
-      <c r="B59" s="70"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="47"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="10" t="s">
+    <row r="59" spans="2:9" ht="20">
+      <c r="B59" s="44"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="31"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="18">
-      <c r="B60" s="70"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="47"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="70"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="71" t="s">
+    <row r="60" spans="2:9" ht="19">
+      <c r="B60" s="44"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="31"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="2:9" ht="17">
+      <c r="B61" s="44"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="70"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="71"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="47"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="62"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="62"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="47"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="62"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="47"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="62"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="71" t="s">
+      <c r="B67" s="34"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="62"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="71"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="45"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="C69" s="26"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="C70" s="27"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="C71" s="9"/>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="2:4" ht="19">
-      <c r="C78" s="5"/>
-      <c r="D78" s="10" t="s">
+      <c r="C70" s="21"/>
+    </row>
+    <row r="78" spans="2:4" ht="20">
+      <c r="C78" s="4"/>
+      <c r="D78" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="19">
-      <c r="C79" s="3"/>
-      <c r="D79" s="10" t="s">
+    <row r="79" spans="2:4" ht="20">
+      <c r="C79" s="2"/>
+      <c r="D79" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="19">
-      <c r="B80" s="65" t="s">
+    <row r="80" spans="2:4" ht="20">
+      <c r="B80" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="54">
+      <c r="C80" s="39">
         <v>0</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="19">
-      <c r="B81" s="65"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="10" t="s">
+    <row r="81" spans="2:7" ht="20">
+      <c r="B81" s="37"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="19">
-      <c r="B82" s="65"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="10" t="s">
+    <row r="82" spans="2:7" ht="20">
+      <c r="B82" s="37"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="19">
-      <c r="B83" s="65"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="10" t="s">
+    <row r="83" spans="2:7" ht="20">
+      <c r="B83" s="37"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="18">
-      <c r="C84" s="3"/>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
+    <row r="84" spans="2:7" ht="19">
+      <c r="C84" s="2"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="2:7" ht="17">
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="C89" s="5"/>
-      <c r="G89" s="6"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="48"/>
-      <c r="G90" s="5"/>
+      <c r="D90" s="31"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="55"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="48"/>
-      <c r="G91" s="56"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="31"/>
+      <c r="G91" s="46"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="55"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="48"/>
-      <c r="G92" s="57"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="31"/>
+      <c r="G92" s="47"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="55"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="48"/>
-      <c r="G93" s="57"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="31"/>
+      <c r="G93" s="47"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="55"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="53"/>
-      <c r="G94" s="57"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="47"/>
+      <c r="G94" s="47"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="55"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="53"/>
-      <c r="G95" s="58"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="47"/>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="55"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="53"/>
-      <c r="G96" s="39"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="47"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="55"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="53"/>
-      <c r="G97" s="39"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="43"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="55"/>
-      <c r="C98" s="54" t="s">
+      <c r="B98" s="48"/>
+      <c r="C98" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="48"/>
-      <c r="G98" s="39"/>
+      <c r="D98" s="31"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="55"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="48"/>
-      <c r="G99" s="39"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="31"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="55"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="53"/>
-      <c r="G100" s="39"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="39"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="55"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="53"/>
-      <c r="G101" s="39"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="39"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="55"/>
-      <c r="C102" s="54" t="s">
+      <c r="B102" s="48"/>
+      <c r="C102" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="48"/>
-      <c r="G102" s="39"/>
+      <c r="D102" s="31"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="55"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="48"/>
-      <c r="G103" s="39"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="31"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="55"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="53"/>
-      <c r="G104" s="39"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="39"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="55"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="53"/>
-      <c r="G105" s="39"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="39"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="C106" s="38"/>
-      <c r="G106" s="39"/>
+      <c r="C106" s="21"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="C107" s="9"/>
-      <c r="G107" s="39"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="G108" s="39"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="G109" s="39"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="G110" s="39"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="G111" s="39"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="G112" s="39"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="G113" s="39"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="G114" s="39"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="G115" s="39"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="G116" s="39"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="G117" s="39"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="G118" s="39"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="G119" s="7"/>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="G120" s="6"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="C122" s="5"/>
-      <c r="G122" s="6"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C123" s="56" t="s">
+      <c r="C123" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D123" s="50"/>
-      <c r="G123" s="5"/>
+      <c r="D123" s="31"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="55"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="50"/>
-      <c r="G124" s="56"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="31"/>
+      <c r="G124" s="46"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="55"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="50"/>
-      <c r="G125" s="57"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="31"/>
+      <c r="G125" s="47"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="55"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="50"/>
-      <c r="G126" s="57"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="31"/>
+      <c r="G126" s="47"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="55"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="53"/>
-      <c r="G127" s="57"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="47"/>
+      <c r="G127" s="47"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="55"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="53"/>
-      <c r="G128" s="58"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="47"/>
+      <c r="G128" s="43"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="55"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="53"/>
-      <c r="G129" s="49"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="47"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="55"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="53"/>
-      <c r="G130" s="49"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="43"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="55"/>
-      <c r="C131" s="54" t="s">
+      <c r="B131" s="48"/>
+      <c r="C131" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D131" s="50"/>
-      <c r="G131" s="49"/>
+      <c r="D131" s="31"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" spans="2:9">
-      <c r="B132" s="55"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="50"/>
-      <c r="G132" s="49"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="31"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="55"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="53"/>
-      <c r="G133" s="49"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="39"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="55"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="53"/>
-      <c r="G134" s="49"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="39"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="72"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="50"/>
-      <c r="G135" s="49"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="31"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136" s="73"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="50"/>
-      <c r="G136" s="49"/>
+      <c r="D136" s="31"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" spans="2:9">
-      <c r="B137" s="73"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="53"/>
-      <c r="G137" s="49"/>
+      <c r="G137" s="15"/>
     </row>
     <row r="138" spans="2:9">
-      <c r="B138" s="73"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="53"/>
-      <c r="G138" s="49"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" spans="2:9">
-      <c r="C139" s="51"/>
-      <c r="G139" s="49"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140" spans="2:9">
-      <c r="C140" s="51"/>
-      <c r="G140" s="49"/>
-      <c r="I140" s="6"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141" spans="2:9">
-      <c r="C141" s="51"/>
-      <c r="G141" s="49"/>
-      <c r="I141" s="5"/>
+      <c r="G141" s="15"/>
+      <c r="I141" s="4"/>
     </row>
     <row r="142" spans="2:9">
-      <c r="C142" s="51"/>
-      <c r="G142" s="49"/>
-      <c r="I142" s="49"/>
+      <c r="G142" s="15"/>
+      <c r="I142" s="15"/>
     </row>
     <row r="143" spans="2:9">
-      <c r="C143" s="51"/>
-      <c r="G143" s="49"/>
-      <c r="I143" s="49"/>
+      <c r="G143" s="15"/>
+      <c r="I143" s="15"/>
     </row>
     <row r="144" spans="2:9">
-      <c r="C144" s="51"/>
-      <c r="G144" s="49"/>
-      <c r="I144" s="49"/>
-    </row>
-    <row r="145" spans="3:9">
-      <c r="C145" s="51"/>
-      <c r="G145" s="49"/>
-      <c r="I145" s="49"/>
-    </row>
-    <row r="146" spans="3:9">
-      <c r="C146" s="51"/>
-      <c r="G146" s="49"/>
-      <c r="I146" s="49"/>
-    </row>
-    <row r="147" spans="3:9">
-      <c r="C147" s="51"/>
-      <c r="G147" s="49"/>
-      <c r="I147" s="49"/>
-    </row>
-    <row r="148" spans="3:9">
-      <c r="C148" s="51"/>
-      <c r="G148" s="49"/>
-      <c r="I148" s="49"/>
-    </row>
-    <row r="149" spans="3:9">
-      <c r="C149" s="51"/>
-      <c r="G149" s="49"/>
-      <c r="I149" s="49"/>
-    </row>
-    <row r="150" spans="3:9">
-      <c r="G150" s="49"/>
-      <c r="I150" s="49"/>
-    </row>
-    <row r="151" spans="3:9">
-      <c r="G151" s="49"/>
-      <c r="I151" s="49"/>
-    </row>
-    <row r="152" spans="3:9">
-      <c r="G152" s="7"/>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" spans="3:9">
-      <c r="G153" s="6"/>
+      <c r="G144" s="15"/>
+      <c r="I144" s="15"/>
+    </row>
+    <row r="145" spans="7:9">
+      <c r="G145" s="15"/>
+      <c r="I145" s="15"/>
+    </row>
+    <row r="146" spans="7:9">
+      <c r="G146" s="15"/>
+      <c r="I146" s="15"/>
+    </row>
+    <row r="147" spans="7:9">
+      <c r="G147" s="15"/>
+      <c r="I147" s="15"/>
+    </row>
+    <row r="148" spans="7:9">
+      <c r="G148" s="15"/>
+      <c r="I148" s="15"/>
+    </row>
+    <row r="149" spans="7:9">
+      <c r="G149" s="15"/>
+      <c r="I149" s="15"/>
+    </row>
+    <row r="150" spans="7:9">
+      <c r="G150" s="15"/>
+      <c r="I150" s="15"/>
+    </row>
+    <row r="151" spans="7:9">
+      <c r="G151" s="15"/>
+      <c r="I151" s="15"/>
+    </row>
+    <row r="152" spans="7:9">
+      <c r="G152" s="5"/>
+      <c r="I152" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -2821,6 +2732,11 @@
     <mergeCell ref="B123:B134"/>
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B90:B105"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="G91:G95"/>
     <mergeCell ref="G52:G55"/>
     <mergeCell ref="H52:H55"/>
     <mergeCell ref="G56:G59"/>
@@ -2882,11 +2798,226 @@
     <mergeCell ref="K17:K20"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="K21:K24"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B90:B105"/>
-    <mergeCell ref="C90:C97"/>
-    <mergeCell ref="G91:G95"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE025A5-9566-0645-89AC-20F64748E87A}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="B3" s="2"/>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20">
+      <c r="B4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20">
+      <c r="B6" s="2"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20">
+      <c r="A7" s="34">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20">
+      <c r="A11" s="34">
+        <v>2</v>
+      </c>
+      <c r="B11" s="35">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20">
+      <c r="A15" s="34">
+        <v>1</v>
+      </c>
+      <c r="B15" s="35">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20">
+      <c r="A19" s="34">
+        <v>0</v>
+      </c>
+      <c r="B19" s="35">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20">
+      <c r="B24" s="2"/>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20">
+      <c r="B25" s="2"/>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20">
+      <c r="B26" s="2"/>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9FAFD3-3FEF-484B-B45B-31D02D7A5F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836400FE-1871-654E-B4C8-8ABB91EE9C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
   <si>
     <t>p+0</t>
   </si>
@@ -626,6 +626,39 @@
   </si>
   <si>
     <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num
+num_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x...A5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -751,6 +784,22 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -1104,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,209 +1280,212 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3356,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
   <dimension ref="A3:CH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="142" zoomScaleNormal="142" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="U97" sqref="U96:U97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3372,6 +3424,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
     <col min="13" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="6.1640625" customWidth="1"/>
     <col min="18" max="18" width="9.1640625" customWidth="1"/>
     <col min="19" max="19" width="7.83203125" customWidth="1"/>
@@ -3408,7 +3461,6 @@
     <col min="69" max="69" width="13.83203125" customWidth="1"/>
     <col min="71" max="71" width="13.83203125" customWidth="1"/>
     <col min="73" max="73" width="13.83203125" customWidth="1"/>
-    <col min="74" max="74" width="10.83203125" style="68"/>
     <col min="76" max="76" width="5.33203125" customWidth="1"/>
     <col min="80" max="80" width="15.6640625" customWidth="1"/>
     <col min="81" max="82" width="8.6640625" customWidth="1"/>
@@ -3465,8 +3517,8 @@
       <c r="BH5" s="24"/>
       <c r="BT5" s="24"/>
       <c r="BU5" s="25"/>
-      <c r="BX5" s="79"/>
-      <c r="BY5" s="79"/>
+      <c r="BX5" s="51"/>
+      <c r="BY5" s="51"/>
       <c r="BZ5" s="17" t="s">
         <v>29</v>
       </c>
@@ -3476,8 +3528,8 @@
       <c r="CB5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="CD5" s="79"/>
-      <c r="CE5" s="79"/>
+      <c r="CD5" s="51"/>
+      <c r="CE5" s="51"/>
       <c r="CF5" s="17" t="s">
         <v>29</v>
       </c>
@@ -3514,11 +3566,11 @@
       <c r="BH6" s="24"/>
       <c r="BT6" s="24"/>
       <c r="BU6" s="26"/>
-      <c r="BX6" s="79"/>
-      <c r="BY6" s="79"/>
+      <c r="BX6" s="51"/>
+      <c r="BY6" s="51"/>
       <c r="CA6" s="4"/>
-      <c r="CD6" s="79"/>
-      <c r="CE6" s="79"/>
+      <c r="CD6" s="51"/>
+      <c r="CE6" s="51"/>
       <c r="CG6" s="4"/>
     </row>
     <row r="7" spans="12:86" ht="20">
@@ -3531,71 +3583,71 @@
         <v>33</v>
       </c>
       <c r="AI7" s="4"/>
-      <c r="AP7" s="47" t="s">
+      <c r="AP7" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="AQ7" s="46">
+      <c r="AQ7" s="87">
         <v>10</v>
       </c>
       <c r="AR7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AT7" s="47" t="s">
+      <c r="AT7" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="AU7" s="46">
+      <c r="AU7" s="87">
         <v>10</v>
       </c>
       <c r="AV7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AX7" s="47" t="s">
+      <c r="AX7" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="AY7" s="46">
+      <c r="AY7" s="87">
         <v>10</v>
       </c>
       <c r="AZ7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BB7" s="47" t="s">
+      <c r="BB7" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="BC7" s="46">
+      <c r="BC7" s="87">
         <v>20</v>
       </c>
       <c r="BD7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BF7" s="47" t="s">
+      <c r="BF7" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="BG7" s="46">
+      <c r="BG7" s="87">
         <v>30</v>
       </c>
       <c r="BH7" s="24" t="s">
         <v>71</v>
       </c>
       <c r="BL7" s="4"/>
-      <c r="BT7" s="47" t="s">
+      <c r="BT7" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="BU7" s="46">
+      <c r="BU7" s="87">
         <v>30</v>
       </c>
-      <c r="BV7" s="68" t="s">
+      <c r="BV7" t="s">
         <v>71</v>
       </c>
-      <c r="BX7" s="79"/>
-      <c r="BY7" s="79"/>
+      <c r="BX7" s="51"/>
+      <c r="BY7" s="51"/>
       <c r="CA7" s="2"/>
-      <c r="CB7" s="86" t="s">
+      <c r="CB7" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="CD7" s="79"/>
-      <c r="CE7" s="79"/>
+      <c r="CD7" s="51"/>
+      <c r="CE7" s="51"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="86" t="s">
+      <c r="CH7" s="54" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3609,28 +3661,28 @@
         <v>34</v>
       </c>
       <c r="AI8" s="2"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="46"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="87"/>
       <c r="AR8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="46"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="87"/>
       <c r="AV8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AX8" s="47"/>
-      <c r="AY8" s="46"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="87"/>
       <c r="AZ8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BB8" s="47"/>
-      <c r="BC8" s="46"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="87"/>
       <c r="BD8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BF8" s="47"/>
-      <c r="BG8" s="46"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="87"/>
       <c r="BH8" s="24" t="s">
         <v>70</v>
       </c>
@@ -3638,38 +3690,38 @@
       <c r="BM8" t="s">
         <v>118</v>
       </c>
-      <c r="BT8" s="47"/>
-      <c r="BU8" s="46"/>
-      <c r="BV8" s="68" t="s">
+      <c r="BT8" s="89"/>
+      <c r="BU8" s="87"/>
+      <c r="BV8" t="s">
         <v>70</v>
       </c>
-      <c r="BX8" s="79"/>
-      <c r="BY8" s="79"/>
+      <c r="BX8" s="51"/>
+      <c r="BY8" s="51"/>
       <c r="CA8" s="2"/>
-      <c r="CB8" s="87" t="s">
+      <c r="CB8" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="CD8" s="79"/>
-      <c r="CE8" s="79"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="51"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="87" t="s">
+      <c r="CH8" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="12:86" ht="20">
-      <c r="Q9" s="51">
+      <c r="Q9" s="102">
         <v>3</v>
       </c>
-      <c r="R9" s="52">
+      <c r="R9" s="100">
         <v>6</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="51" t="s">
+      <c r="V9" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="52">
+      <c r="W9" s="100">
         <v>16</v>
       </c>
       <c r="X9" s="7" t="s">
@@ -3680,28 +3732,28 @@
       <c r="AJ9">
         <v>15</v>
       </c>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="46"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="87"/>
       <c r="AR9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="46"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="87"/>
       <c r="AV9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="46"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="87"/>
       <c r="AZ9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="46"/>
+      <c r="BB9" s="89"/>
+      <c r="BC9" s="87"/>
       <c r="BD9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="BF9" s="47"/>
-      <c r="BG9" s="46"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="87"/>
       <c r="BH9" s="24" t="s">
         <v>68</v>
       </c>
@@ -3709,42 +3761,42 @@
       <c r="BM9" t="s">
         <v>119</v>
       </c>
-      <c r="BT9" s="47"/>
-      <c r="BU9" s="46"/>
-      <c r="BV9" s="68" t="s">
+      <c r="BT9" s="89"/>
+      <c r="BU9" s="87"/>
+      <c r="BV9" t="s">
         <v>68</v>
       </c>
-      <c r="BX9" s="79"/>
-      <c r="BY9" s="79"/>
-      <c r="BZ9" s="42">
+      <c r="BX9" s="51"/>
+      <c r="BY9" s="51"/>
+      <c r="BZ9" s="66">
         <v>3</v>
       </c>
-      <c r="CA9" s="69">
+      <c r="CA9" s="81">
         <v>3</v>
       </c>
-      <c r="CB9" s="87" t="s">
+      <c r="CB9" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="CD9" s="79"/>
-      <c r="CE9" s="79"/>
-      <c r="CF9" s="42">
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="51"/>
+      <c r="CF9" s="66">
         <v>3</v>
       </c>
-      <c r="CG9" s="69">
+      <c r="CG9" s="81">
         <v>3</v>
       </c>
-      <c r="CH9" s="87" t="s">
+      <c r="CH9" s="55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="12:86" ht="20">
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="100"/>
       <c r="S10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="100"/>
       <c r="X10" s="7" t="s">
         <v>16</v>
       </c>
@@ -3756,28 +3808,28 @@
       <c r="AJ10">
         <v>14</v>
       </c>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="46"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="87"/>
       <c r="AR10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="46"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="87"/>
       <c r="AV10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="46"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="87"/>
       <c r="AZ10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="46"/>
+      <c r="BB10" s="89"/>
+      <c r="BC10" s="87"/>
       <c r="BD10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BF10" s="47"/>
-      <c r="BG10" s="46"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="87"/>
       <c r="BH10" s="24" t="s">
         <v>69</v>
       </c>
@@ -3785,23 +3837,23 @@
       <c r="BM10" t="s">
         <v>120</v>
       </c>
-      <c r="BT10" s="47"/>
-      <c r="BU10" s="46"/>
-      <c r="BV10" s="68" t="s">
+      <c r="BT10" s="89"/>
+      <c r="BU10" s="87"/>
+      <c r="BV10" t="s">
         <v>69</v>
       </c>
-      <c r="BX10" s="79"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="69"/>
-      <c r="CB10" s="87" t="s">
+      <c r="BX10" s="51"/>
+      <c r="BY10" s="51"/>
+      <c r="BZ10" s="66"/>
+      <c r="CA10" s="81"/>
+      <c r="CB10" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="CD10" s="79"/>
-      <c r="CE10" s="79"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="69"/>
-      <c r="CH10" s="87" t="s">
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="51"/>
+      <c r="CF10" s="66"/>
+      <c r="CG10" s="81"/>
+      <c r="CH10" s="55" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3810,13 +3862,13 @@
       <c r="M11" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="52"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="100"/>
       <c r="X11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3854,18 +3906,18 @@
         <v>121</v>
       </c>
       <c r="BU11" s="5"/>
-      <c r="BX11" s="79"/>
-      <c r="BY11" s="79"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="69"/>
-      <c r="CB11" s="87" t="s">
+      <c r="BX11" s="51"/>
+      <c r="BY11" s="51"/>
+      <c r="BZ11" s="66"/>
+      <c r="CA11" s="81"/>
+      <c r="CB11" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="CD11" s="79"/>
-      <c r="CE11" s="79"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="69"/>
-      <c r="CH11" s="87" t="s">
+      <c r="CD11" s="51"/>
+      <c r="CE11" s="51"/>
+      <c r="CF11" s="66"/>
+      <c r="CG11" s="81"/>
+      <c r="CH11" s="55" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3876,13 +3928,13 @@
       <c r="M12" t="s">
         <v>108</v>
       </c>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="52"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="51"/>
-      <c r="W12" s="52"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="7" t="s">
         <v>18</v>
       </c>
@@ -3913,27 +3965,27 @@
       <c r="BF12" s="30"/>
       <c r="BG12" s="28"/>
       <c r="BH12" s="24"/>
-      <c r="BK12" s="42" t="s">
+      <c r="BK12" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="BL12" s="43">
+      <c r="BL12" s="95">
         <v>2002</v>
       </c>
       <c r="BM12" t="s">
         <v>122</v>
       </c>
-      <c r="BX12" s="79"/>
-      <c r="BY12" s="79"/>
-      <c r="BZ12" s="42"/>
-      <c r="CA12" s="69"/>
-      <c r="CB12" s="87" t="s">
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="66"/>
+      <c r="CA12" s="81"/>
+      <c r="CB12" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="CD12" s="79"/>
-      <c r="CE12" s="79"/>
-      <c r="CF12" s="42"/>
-      <c r="CG12" s="69"/>
-      <c r="CH12" s="87" t="s">
+      <c r="CD12" s="51"/>
+      <c r="CE12" s="51"/>
+      <c r="CF12" s="66"/>
+      <c r="CG12" s="81"/>
+      <c r="CH12" s="55" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3944,19 +3996,19 @@
       <c r="M13" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="102">
         <v>2</v>
       </c>
-      <c r="R13" s="52">
+      <c r="R13" s="100">
         <v>7</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="51" t="s">
+      <c r="V13" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="52">
+      <c r="W13" s="100">
         <v>15</v>
       </c>
       <c r="X13" s="7" t="s">
@@ -3966,17 +4018,17 @@
       <c r="AB13">
         <v>10</v>
       </c>
-      <c r="AD13" s="42" t="s">
+      <c r="AD13" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" s="54"/>
+      <c r="AE13" s="103"/>
       <c r="AF13">
         <v>11</v>
       </c>
-      <c r="AH13" s="42" t="s">
+      <c r="AH13" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AI13" s="54"/>
+      <c r="AI13" s="103"/>
       <c r="AJ13">
         <v>11</v>
       </c>
@@ -3995,33 +4047,33 @@
       <c r="BF13" s="30"/>
       <c r="BG13" s="28"/>
       <c r="BH13" s="24"/>
-      <c r="BK13" s="42"/>
-      <c r="BL13" s="43"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="95"/>
       <c r="BM13" t="s">
         <v>123</v>
       </c>
       <c r="BR13" s="30"/>
       <c r="BS13" s="29"/>
-      <c r="BX13" s="79"/>
-      <c r="BY13" s="79"/>
-      <c r="BZ13" s="42">
+      <c r="BX13" s="51"/>
+      <c r="BY13" s="51"/>
+      <c r="BZ13" s="66">
         <v>2</v>
       </c>
-      <c r="CA13" s="69">
+      <c r="CA13" s="81">
         <v>2</v>
       </c>
-      <c r="CB13" s="87" t="s">
+      <c r="CB13" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="CD13" s="79"/>
-      <c r="CE13" s="79"/>
-      <c r="CF13" s="42">
+      <c r="CD13" s="51"/>
+      <c r="CE13" s="51"/>
+      <c r="CF13" s="66">
         <v>2</v>
       </c>
-      <c r="CG13" s="69">
+      <c r="CG13" s="81">
         <v>2</v>
       </c>
-      <c r="CH13" s="87" t="s">
+      <c r="CH13" s="55" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4032,13 +4084,13 @@
       <c r="M14" t="s">
         <v>106</v>
       </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="100"/>
       <c r="S14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="52"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="7" t="s">
         <v>20</v>
       </c>
@@ -4046,13 +4098,13 @@
       <c r="AB14">
         <v>9</v>
       </c>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="54"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="103"/>
       <c r="AF14">
         <v>10</v>
       </c>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="54"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="103"/>
       <c r="AJ14">
         <v>10</v>
       </c>
@@ -4083,32 +4135,32 @@
       <c r="BF14" s="30"/>
       <c r="BG14" s="29"/>
       <c r="BH14" s="24"/>
-      <c r="BK14" s="42"/>
-      <c r="BL14" s="43"/>
+      <c r="BK14" s="66"/>
+      <c r="BL14" s="95"/>
       <c r="BM14" t="s">
         <v>124</v>
       </c>
-      <c r="BR14" s="44" t="s">
+      <c r="BR14" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="BS14" s="46" t="s">
+      <c r="BS14" s="87" t="s">
         <v>69</v>
       </c>
       <c r="BT14" t="s">
         <v>133</v>
       </c>
-      <c r="BX14" s="79"/>
-      <c r="BY14" s="79"/>
-      <c r="BZ14" s="42"/>
-      <c r="CA14" s="69"/>
-      <c r="CB14" s="87" t="s">
+      <c r="BX14" s="51"/>
+      <c r="BY14" s="51"/>
+      <c r="BZ14" s="66"/>
+      <c r="CA14" s="81"/>
+      <c r="CB14" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="CD14" s="79"/>
-      <c r="CE14" s="79"/>
-      <c r="CF14" s="42"/>
-      <c r="CG14" s="69"/>
-      <c r="CH14" s="87" t="s">
+      <c r="CD14" s="51"/>
+      <c r="CE14" s="51"/>
+      <c r="CF14" s="66"/>
+      <c r="CG14" s="81"/>
+      <c r="CH14" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4119,13 +4171,13 @@
       <c r="M15" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="100"/>
       <c r="S15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="V15" s="51"/>
-      <c r="W15" s="52"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="100"/>
       <c r="X15" s="7" t="s">
         <v>21</v>
       </c>
@@ -4138,73 +4190,73 @@
       <c r="AB15">
         <v>8</v>
       </c>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="54"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="103"/>
       <c r="AF15">
         <v>9</v>
       </c>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="54"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="103"/>
       <c r="AJ15">
         <v>9</v>
       </c>
-      <c r="AP15" s="44" t="s">
+      <c r="AP15" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="AQ15" s="46">
+      <c r="AQ15" s="87">
         <v>0</v>
       </c>
       <c r="AR15" s="24"/>
-      <c r="AT15" s="44" t="s">
+      <c r="AT15" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="AU15" s="46" t="s">
+      <c r="AU15" s="87" t="s">
         <v>69</v>
       </c>
       <c r="AV15" s="24"/>
-      <c r="AX15" s="44" t="s">
+      <c r="AX15" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="AY15" s="46" t="s">
+      <c r="AY15" s="87" t="s">
         <v>69</v>
       </c>
       <c r="AZ15" s="24"/>
-      <c r="BB15" s="44" t="s">
+      <c r="BB15" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="BC15" s="46" t="s">
+      <c r="BC15" s="87" t="s">
         <v>69</v>
       </c>
       <c r="BD15" s="24"/>
-      <c r="BF15" s="44" t="s">
+      <c r="BF15" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="BG15" s="46" t="s">
+      <c r="BG15" s="87" t="s">
         <v>69</v>
       </c>
       <c r="BH15" s="24"/>
-      <c r="BK15" s="42"/>
-      <c r="BL15" s="43"/>
+      <c r="BK15" s="66"/>
+      <c r="BL15" s="95"/>
       <c r="BM15" t="s">
         <v>125</v>
       </c>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="46"/>
+      <c r="BR15" s="90"/>
+      <c r="BS15" s="87"/>
       <c r="BT15" t="s">
         <v>134</v>
       </c>
-      <c r="BX15" s="60"/>
-      <c r="BY15" s="82"/>
-      <c r="BZ15" s="42"/>
-      <c r="CA15" s="69"/>
-      <c r="CB15" s="87" t="s">
+      <c r="BX15" s="42"/>
+      <c r="BY15" s="52"/>
+      <c r="BZ15" s="66"/>
+      <c r="CA15" s="81"/>
+      <c r="CB15" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="CD15" s="60"/>
-      <c r="CE15" s="82"/>
-      <c r="CF15" s="42"/>
-      <c r="CG15" s="69"/>
-      <c r="CH15" s="87" t="s">
+      <c r="CD15" s="42"/>
+      <c r="CE15" s="52"/>
+      <c r="CF15" s="66"/>
+      <c r="CG15" s="81"/>
+      <c r="CH15" s="55" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4215,51 +4267,51 @@
       <c r="M16" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="100"/>
       <c r="S16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="51"/>
-      <c r="W16" s="52"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="100"/>
       <c r="X16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="51" t="s">
+      <c r="Z16" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="AA16" s="43">
+      <c r="AA16" s="95">
         <v>2000</v>
       </c>
       <c r="AB16">
         <v>7</v>
       </c>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="54"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="103"/>
       <c r="AF16">
         <v>8</v>
       </c>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="54"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="103"/>
       <c r="AJ16">
         <v>8</v>
       </c>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="46"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="87"/>
       <c r="AR16" s="24"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="46"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="87"/>
       <c r="AV16" s="24"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="46"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="87"/>
       <c r="AZ16" s="24"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="46"/>
+      <c r="BB16" s="90"/>
+      <c r="BC16" s="87"/>
       <c r="BD16" s="24"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="46"/>
+      <c r="BF16" s="90"/>
+      <c r="BG16" s="87"/>
       <c r="BH16" s="24"/>
-      <c r="BK16" s="42" t="s">
+      <c r="BK16" s="66" t="s">
         <v>50</v>
       </c>
       <c r="BL16" s="15">
@@ -4268,31 +4320,31 @@
       <c r="BM16" t="s">
         <v>126</v>
       </c>
-      <c r="BR16" s="44"/>
-      <c r="BS16" s="46"/>
+      <c r="BR16" s="90"/>
+      <c r="BS16" s="87"/>
       <c r="BT16" t="s">
         <v>135</v>
       </c>
-      <c r="BX16" s="64" t="s">
+      <c r="BX16" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="BY16" s="66" t="s">
+      <c r="BY16" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="BZ16" s="42"/>
-      <c r="CA16" s="69"/>
-      <c r="CB16" s="87" t="s">
+      <c r="BZ16" s="66"/>
+      <c r="CA16" s="81"/>
+      <c r="CB16" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="CD16" s="64" t="s">
+      <c r="CD16" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="CE16" s="66" t="s">
+      <c r="CE16" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="CF16" s="42"/>
-      <c r="CG16" s="69"/>
-      <c r="CH16" s="87" t="s">
+      <c r="CF16" s="66"/>
+      <c r="CG16" s="81"/>
+      <c r="CH16" s="55" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4301,26 +4353,26 @@
       <c r="M17" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="102">
         <v>1</v>
       </c>
-      <c r="R17" s="52">
+      <c r="R17" s="100">
         <v>8</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="51" t="s">
+      <c r="V17" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="52">
+      <c r="W17" s="100">
         <v>14</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="43"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="95"/>
       <c r="AB17">
         <v>6</v>
       </c>
@@ -4334,69 +4386,69 @@
       <c r="AJ17">
         <v>7</v>
       </c>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="46"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="87"/>
       <c r="AR17" s="24"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="46"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="87"/>
       <c r="AV17" s="24"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="46"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="87"/>
       <c r="AZ17" s="24"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="46"/>
+      <c r="BB17" s="90"/>
+      <c r="BC17" s="87"/>
       <c r="BD17" s="24"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="46"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="87"/>
       <c r="BH17" s="24"/>
-      <c r="BK17" s="42"/>
+      <c r="BK17" s="66"/>
       <c r="BL17" s="15">
         <v>0</v>
       </c>
       <c r="BM17" t="s">
         <v>127</v>
       </c>
-      <c r="BR17" s="44"/>
-      <c r="BS17" s="46"/>
+      <c r="BR17" s="90"/>
+      <c r="BS17" s="87"/>
       <c r="BT17" t="s">
         <v>132</v>
       </c>
-      <c r="BX17" s="64"/>
-      <c r="BY17" s="67"/>
-      <c r="BZ17" s="42">
+      <c r="BX17" s="82"/>
+      <c r="BY17" s="84"/>
+      <c r="BZ17" s="66">
         <v>1</v>
       </c>
-      <c r="CA17" s="69">
+      <c r="CA17" s="81">
         <v>1</v>
       </c>
-      <c r="CB17" s="87" t="s">
+      <c r="CB17" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="CD17" s="64"/>
-      <c r="CE17" s="67"/>
-      <c r="CF17" s="42">
+      <c r="CD17" s="82"/>
+      <c r="CE17" s="84"/>
+      <c r="CF17" s="66">
         <v>1</v>
       </c>
-      <c r="CG17" s="69">
+      <c r="CG17" s="81">
         <v>1</v>
       </c>
-      <c r="CH17" s="87" t="s">
+      <c r="CH17" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="12:86" ht="20">
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="100"/>
       <c r="S18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V18" s="51"/>
-      <c r="W18" s="52"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="100"/>
       <c r="X18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="43"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="95"/>
       <c r="AB18">
         <v>5</v>
       </c>
@@ -4418,22 +4470,22 @@
       <c r="AO18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="46"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="87"/>
       <c r="AR18" s="24"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="46"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="87"/>
       <c r="AV18" s="24"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="46"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="87"/>
       <c r="AZ18" s="24"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="46"/>
+      <c r="BB18" s="90"/>
+      <c r="BC18" s="87"/>
       <c r="BD18" s="24"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="46"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="87"/>
       <c r="BH18" s="24"/>
-      <c r="BK18" s="42"/>
+      <c r="BK18" s="66"/>
       <c r="BL18" s="16" t="s">
         <v>117</v>
       </c>
@@ -4441,34 +4493,34 @@
         <v>128</v>
       </c>
       <c r="BS18" s="5"/>
-      <c r="BX18" s="60"/>
-      <c r="BY18" s="83"/>
-      <c r="BZ18" s="42"/>
-      <c r="CA18" s="69"/>
-      <c r="CB18" s="87" t="s">
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="53"/>
+      <c r="BZ18" s="66"/>
+      <c r="CA18" s="81"/>
+      <c r="CB18" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="CD18" s="60"/>
-      <c r="CE18" s="83"/>
-      <c r="CF18" s="42"/>
-      <c r="CG18" s="69"/>
-      <c r="CH18" s="87" t="s">
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="53"/>
+      <c r="CF18" s="66"/>
+      <c r="CG18" s="81"/>
+      <c r="CH18" s="55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="12:86" ht="20">
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="100"/>
       <c r="S19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V19" s="51"/>
-      <c r="W19" s="52"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="100"/>
       <c r="X19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="43"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="95"/>
       <c r="AB19">
         <v>4</v>
       </c>
@@ -4488,74 +4540,74 @@
       <c r="AM19" s="34"/>
       <c r="AN19" s="35"/>
       <c r="AO19" s="34"/>
-      <c r="AP19" s="44" t="s">
+      <c r="AP19" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="AQ19" s="46">
+      <c r="AQ19" s="87">
         <v>0</v>
       </c>
       <c r="AR19" s="24"/>
-      <c r="AT19" s="44" t="s">
+      <c r="AT19" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="AU19" s="46">
+      <c r="AU19" s="87">
         <v>0</v>
       </c>
       <c r="AV19" s="24"/>
-      <c r="AX19" s="44" t="s">
+      <c r="AX19" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="AY19" s="46" t="s">
+      <c r="AY19" s="87" t="s">
         <v>69</v>
       </c>
       <c r="AZ19" s="24"/>
-      <c r="BB19" s="44" t="s">
+      <c r="BB19" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="BC19" s="46" t="s">
+      <c r="BC19" s="87" t="s">
         <v>69</v>
       </c>
       <c r="BD19" s="24"/>
-      <c r="BF19" s="44" t="s">
+      <c r="BF19" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="BG19" s="46" t="s">
+      <c r="BG19" s="87" t="s">
         <v>69</v>
       </c>
       <c r="BH19" s="24"/>
-      <c r="BK19" s="42"/>
+      <c r="BK19" s="66"/>
       <c r="BL19" s="16" t="s">
         <v>116</v>
       </c>
       <c r="BM19" t="s">
         <v>69</v>
       </c>
-      <c r="BX19" s="79"/>
-      <c r="BY19" s="79"/>
-      <c r="BZ19" s="42"/>
-      <c r="CA19" s="69"/>
-      <c r="CB19" s="87" t="s">
+      <c r="BX19" s="51"/>
+      <c r="BY19" s="51"/>
+      <c r="BZ19" s="66"/>
+      <c r="CA19" s="81"/>
+      <c r="CB19" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="CE19" s="79"/>
-      <c r="CF19" s="42"/>
-      <c r="CG19" s="69"/>
-      <c r="CH19" s="87" t="s">
+      <c r="CE19" s="51"/>
+      <c r="CF19" s="66"/>
+      <c r="CG19" s="81"/>
+      <c r="CH19" s="55" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="12:86" ht="20">
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V20" s="51"/>
-      <c r="W20" s="52"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="100"/>
       <c r="X20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="51" t="s">
+      <c r="Z20" s="102" t="s">
         <v>50</v>
       </c>
       <c r="AA20" s="15">
@@ -4584,86 +4636,86 @@
       <c r="AO20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="46"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="87"/>
       <c r="AR20" s="24"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="46"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="87"/>
       <c r="AV20" s="24"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="46"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="87"/>
       <c r="AZ20" s="24"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="46"/>
+      <c r="BB20" s="90"/>
+      <c r="BC20" s="87"/>
       <c r="BD20" s="24"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="46"/>
+      <c r="BF20" s="90"/>
+      <c r="BG20" s="87"/>
       <c r="BH20" s="24"/>
       <c r="BL20" s="5"/>
-      <c r="BP20" s="60"/>
-      <c r="BQ20" s="61"/>
-      <c r="BX20" s="79"/>
-      <c r="BY20" s="79"/>
-      <c r="BZ20" s="42"/>
-      <c r="CA20" s="69"/>
-      <c r="CB20" s="87" t="s">
+      <c r="BP20" s="42"/>
+      <c r="BQ20" s="43"/>
+      <c r="BX20" s="51"/>
+      <c r="BY20" s="51"/>
+      <c r="BZ20" s="66"/>
+      <c r="CA20" s="81"/>
+      <c r="CB20" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="CC20" s="84" t="s">
+      <c r="CC20" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="CD20" s="85"/>
-      <c r="CE20" s="79"/>
-      <c r="CF20" s="42"/>
-      <c r="CG20" s="69"/>
-      <c r="CH20" s="87" t="s">
+      <c r="CD20" s="86"/>
+      <c r="CE20" s="51"/>
+      <c r="CF20" s="66"/>
+      <c r="CG20" s="81"/>
+      <c r="CH20" s="55" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="12:86" ht="20">
-      <c r="Q21" s="51">
+      <c r="Q21" s="102">
         <v>0</v>
       </c>
-      <c r="R21" s="52">
+      <c r="R21" s="100">
         <v>9</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="51" t="s">
+      <c r="V21" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="W21" s="52">
+      <c r="W21" s="100">
         <v>13</v>
       </c>
       <c r="X21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Z21" s="51"/>
+      <c r="Z21" s="102"/>
       <c r="AA21" s="15">
         <v>0</v>
       </c>
       <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AD21" s="42" t="s">
+      <c r="AD21" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AE21" s="54"/>
+      <c r="AE21" s="103"/>
       <c r="AF21">
         <v>3</v>
       </c>
-      <c r="AH21" s="42" t="s">
+      <c r="AH21" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AI21" s="54"/>
+      <c r="AI21" s="103"/>
       <c r="AJ21">
         <v>3</v>
       </c>
       <c r="AL21" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AM21" s="48" t="s">
+      <c r="AM21" s="104" t="s">
         <v>62</v>
       </c>
       <c r="AN21" s="39">
@@ -4672,160 +4724,160 @@
       <c r="AO21" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="46"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="87"/>
       <c r="AR21" s="24"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="46"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="87"/>
       <c r="AV21" s="24"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="46"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="87"/>
       <c r="AZ21" s="24"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="46"/>
+      <c r="BB21" s="90"/>
+      <c r="BC21" s="87"/>
       <c r="BD21" s="24"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="46"/>
+      <c r="BF21" s="90"/>
+      <c r="BG21" s="87"/>
       <c r="BH21" s="24"/>
-      <c r="BP21" s="64" t="s">
+      <c r="BP21" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="BQ21" s="66" t="s">
+      <c r="BQ21" s="83" t="s">
         <v>132</v>
       </c>
       <c r="BR21" t="s">
         <v>137</v>
       </c>
-      <c r="BX21" s="79"/>
-      <c r="BY21" s="79"/>
-      <c r="BZ21" s="42">
+      <c r="BX21" s="51"/>
+      <c r="BY21" s="51"/>
+      <c r="BZ21" s="66">
         <v>0</v>
       </c>
-      <c r="CA21" s="69">
+      <c r="CA21" s="81">
         <v>0</v>
       </c>
-      <c r="CB21" s="87" t="s">
+      <c r="CB21" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="CD21" s="79"/>
-      <c r="CE21" s="79"/>
-      <c r="CF21" s="42">
+      <c r="CD21" s="51"/>
+      <c r="CE21" s="51"/>
+      <c r="CF21" s="66">
         <v>0</v>
       </c>
-      <c r="CG21" s="69">
+      <c r="CG21" s="81">
         <v>0</v>
       </c>
-      <c r="CH21" s="87" t="s">
+      <c r="CH21" s="55" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="12:86" ht="20">
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="100"/>
       <c r="S22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="V22" s="51"/>
-      <c r="W22" s="52"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="100"/>
       <c r="X22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="51"/>
+      <c r="Z22" s="102"/>
       <c r="AA22" s="16" t="s">
         <v>54</v>
       </c>
       <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="54"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="103"/>
       <c r="AF22">
         <v>2</v>
       </c>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="54"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="103"/>
       <c r="AJ22">
         <v>2</v>
       </c>
       <c r="AL22" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AM22" s="49"/>
+      <c r="AM22" s="105"/>
       <c r="AN22" s="39">
         <v>0</v>
       </c>
       <c r="AO22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="46"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="87"/>
       <c r="AR22" s="24"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="46"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="87"/>
       <c r="AV22" s="24"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="46"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="87"/>
       <c r="AZ22" s="24"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="46"/>
+      <c r="BB22" s="90"/>
+      <c r="BC22" s="87"/>
       <c r="BD22" s="24"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="46"/>
+      <c r="BF22" s="90"/>
+      <c r="BG22" s="87"/>
       <c r="BH22" s="24"/>
       <c r="BK22" s="30"/>
       <c r="BL22" s="29"/>
-      <c r="BP22" s="64"/>
-      <c r="BQ22" s="65"/>
+      <c r="BP22" s="82"/>
+      <c r="BQ22" s="91"/>
       <c r="BR22" t="s">
         <v>138</v>
       </c>
-      <c r="BX22" s="79"/>
-      <c r="BY22" s="79"/>
-      <c r="BZ22" s="42"/>
-      <c r="CA22" s="69"/>
-      <c r="CB22" s="87" t="s">
+      <c r="BX22" s="51"/>
+      <c r="BY22" s="51"/>
+      <c r="BZ22" s="66"/>
+      <c r="CA22" s="81"/>
+      <c r="CB22" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="CD22" s="79"/>
-      <c r="CE22" s="79"/>
-      <c r="CF22" s="42"/>
-      <c r="CG22" s="69"/>
-      <c r="CH22" s="87" t="s">
+      <c r="CD22" s="51"/>
+      <c r="CE22" s="51"/>
+      <c r="CF22" s="66"/>
+      <c r="CG22" s="81"/>
+      <c r="CH22" s="55" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="12:86" ht="20">
-      <c r="Q23" s="51"/>
-      <c r="R23" s="52"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="100"/>
       <c r="S23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="100"/>
       <c r="X23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="51"/>
+      <c r="Z23" s="102"/>
       <c r="AA23" s="16" t="s">
         <v>53</v>
       </c>
       <c r="AB23">
         <v>0</v>
       </c>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="54"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="103"/>
       <c r="AF23">
         <v>1</v>
       </c>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="54"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="103"/>
       <c r="AJ23">
         <v>1</v>
       </c>
       <c r="AL23" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AM23" s="49"/>
+      <c r="AM23" s="105"/>
       <c r="AN23" s="39">
         <v>0</v>
       </c>
@@ -4847,40 +4899,40 @@
       <c r="BF23" s="24"/>
       <c r="BG23" s="27"/>
       <c r="BH23" s="24"/>
-      <c r="BK23" s="44" t="s">
+      <c r="BK23" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="BL23" s="45" t="s">
+      <c r="BL23" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="BP23" s="64"/>
-      <c r="BQ23" s="65"/>
+      <c r="BP23" s="82"/>
+      <c r="BQ23" s="91"/>
       <c r="BR23" t="s">
         <v>139</v>
       </c>
-      <c r="BX23" s="79"/>
-      <c r="BY23" s="79"/>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="69"/>
-      <c r="CB23" s="87" t="s">
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
+      <c r="BZ23" s="66"/>
+      <c r="CA23" s="81"/>
+      <c r="CB23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="CD23" s="79"/>
-      <c r="CE23" s="79"/>
-      <c r="CF23" s="42"/>
-      <c r="CG23" s="69"/>
-      <c r="CH23" s="87" t="s">
+      <c r="CD23" s="51"/>
+      <c r="CE23" s="51"/>
+      <c r="CF23" s="66"/>
+      <c r="CG23" s="81"/>
+      <c r="CH23" s="55" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="12:86" ht="20">
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="100"/>
       <c r="S24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="100"/>
       <c r="X24" s="7" t="s">
         <v>10</v>
       </c>
@@ -4888,20 +4940,20 @@
       <c r="AB24">
         <v>-1</v>
       </c>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="54"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="103"/>
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="54"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="103"/>
       <c r="AJ24">
         <v>0</v>
       </c>
       <c r="AL24" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AM24" s="50"/>
+      <c r="AM24" s="106"/>
       <c r="AN24" s="39">
         <v>1</v>
       </c>
@@ -4909,25 +4961,25 @@
         <v>45</v>
       </c>
       <c r="AQ24" s="1"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="45"/>
-      <c r="BP24" s="64"/>
-      <c r="BQ24" s="67"/>
+      <c r="BK24" s="90"/>
+      <c r="BL24" s="107"/>
+      <c r="BP24" s="82"/>
+      <c r="BQ24" s="84"/>
       <c r="BR24" t="s">
         <v>136</v>
       </c>
-      <c r="BX24" s="79"/>
-      <c r="BY24" s="79"/>
-      <c r="BZ24" s="42"/>
-      <c r="CA24" s="69"/>
-      <c r="CB24" s="87" t="s">
+      <c r="BX24" s="51"/>
+      <c r="BY24" s="51"/>
+      <c r="BZ24" s="66"/>
+      <c r="CA24" s="81"/>
+      <c r="CB24" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="CD24" s="79"/>
-      <c r="CE24" s="79"/>
-      <c r="CF24" s="42"/>
-      <c r="CG24" s="69"/>
-      <c r="CH24" s="87" t="s">
+      <c r="CD24" s="51"/>
+      <c r="CE24" s="51"/>
+      <c r="CF24" s="66"/>
+      <c r="CG24" s="81"/>
+      <c r="CH24" s="55" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4936,10 +4988,10 @@
       <c r="S25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="51" t="s">
+      <c r="V25" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="52">
+      <c r="W25" s="100">
         <v>12</v>
       </c>
       <c r="X25" s="7" t="s">
@@ -4957,16 +5009,16 @@
       <c r="AO25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="45"/>
-      <c r="BP25" s="62"/>
-      <c r="BQ25" s="63"/>
-      <c r="BX25" s="79"/>
-      <c r="BY25" s="79"/>
+      <c r="BK25" s="90"/>
+      <c r="BL25" s="107"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="45"/>
+      <c r="BX25" s="51"/>
+      <c r="BY25" s="51"/>
       <c r="CA25" s="2"/>
       <c r="CB25" s="7"/>
-      <c r="CD25" s="79"/>
-      <c r="CE25" s="79"/>
+      <c r="CD25" s="51"/>
+      <c r="CE25" s="51"/>
       <c r="CG25" s="2"/>
       <c r="CH25" s="7"/>
     </row>
@@ -4975,8 +5027,8 @@
       <c r="S26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="100"/>
       <c r="X26" s="7" t="s">
         <v>12</v>
       </c>
@@ -4987,14 +5039,14 @@
       <c r="AM26" s="22"/>
       <c r="AN26" s="23"/>
       <c r="AO26" s="22"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="45"/>
-      <c r="BX26" s="79"/>
-      <c r="BY26" s="79"/>
+      <c r="BK26" s="90"/>
+      <c r="BL26" s="107"/>
+      <c r="BX26" s="51"/>
+      <c r="BY26" s="51"/>
       <c r="CA26" s="5"/>
       <c r="CB26" s="6"/>
-      <c r="CD26" s="79"/>
-      <c r="CE26" s="79"/>
+      <c r="CD26" s="51"/>
+      <c r="CE26" s="51"/>
       <c r="CG26" s="5"/>
       <c r="CH26" s="6"/>
     </row>
@@ -5003,8 +5055,8 @@
       <c r="S27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="51"/>
-      <c r="W27" s="52"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="100"/>
       <c r="X27" s="7" t="s">
         <v>13</v>
       </c>
@@ -5015,8 +5067,8 @@
       <c r="S28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="51"/>
-      <c r="W28" s="52"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="100"/>
       <c r="X28" s="7" t="s">
         <v>14</v>
       </c>
@@ -5024,10 +5076,10 @@
     <row r="29" spans="12:86" ht="20">
       <c r="R29" s="5"/>
       <c r="S29" s="6"/>
-      <c r="V29" s="51" t="s">
+      <c r="V29" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="W29" s="52">
+      <c r="W29" s="100">
         <v>11</v>
       </c>
       <c r="X29" s="7" t="s">
@@ -5036,24 +5088,24 @@
     </row>
     <row r="30" spans="12:86" ht="20">
       <c r="S30" s="6"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="52"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="100"/>
       <c r="X30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="12:86" ht="20">
       <c r="S31" s="6"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="52"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="100"/>
       <c r="X31" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="12:86" ht="20">
       <c r="S32" s="6"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="53"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="101"/>
       <c r="X32" s="7" t="s">
         <v>0</v>
       </c>
@@ -5083,680 +5135,700 @@
       </c>
     </row>
     <row r="39" spans="7:24" ht="18">
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
     </row>
     <row r="40" spans="7:24" ht="18">
-      <c r="G40" s="75"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
       <c r="R40" s="17"/>
       <c r="S40" s="1"/>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="7:24" ht="18">
-      <c r="G41" s="75"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
     </row>
     <row r="42" spans="7:24" ht="18">
-      <c r="G42" s="75"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
     </row>
     <row r="43" spans="7:24" ht="18">
-      <c r="G43" s="75"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="80" t="s">
+      <c r="G43" s="47"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
     </row>
     <row r="44" spans="7:24" ht="18">
-      <c r="G44" s="75"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
     </row>
     <row r="45" spans="7:24" ht="18">
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="77" t="s">
+      <c r="G45" s="47"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="L45" s="46"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
     </row>
     <row r="46" spans="7:24" ht="18">
-      <c r="G46" s="75"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
     </row>
     <row r="47" spans="7:24" ht="18">
-      <c r="G47" s="75"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
     </row>
     <row r="48" spans="7:24" ht="18">
-      <c r="G48" s="75"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
     </row>
     <row r="49" spans="7:20" ht="18">
-      <c r="G49" s="75"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="80" t="s">
+      <c r="G49" s="47"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
     </row>
     <row r="50" spans="7:20" ht="18">
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="79"/>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
     </row>
     <row r="51" spans="7:20" ht="18">
-      <c r="G51" s="75"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="77" t="s">
+      <c r="G51" s="47"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="L51" s="46"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="79"/>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
     </row>
     <row r="52" spans="7:20" ht="18">
-      <c r="G52" s="75"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="79"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
     </row>
     <row r="53" spans="7:20" ht="18">
-      <c r="G53" s="75"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
     </row>
     <row r="54" spans="7:20" ht="18">
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="H54" s="46" t="s">
+      <c r="H54" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
     </row>
     <row r="55" spans="7:20" ht="18">
-      <c r="G55" s="71"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="80" t="s">
+      <c r="G55" s="88"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
     </row>
     <row r="56" spans="7:20" ht="18">
-      <c r="G56" s="75"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="97"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
     </row>
     <row r="57" spans="7:20" ht="18">
-      <c r="G57" s="75"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="77" t="s">
+      <c r="G57" s="47"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="L57" s="46"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
     </row>
     <row r="58" spans="7:20" ht="18">
-      <c r="G58" s="75"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
     </row>
     <row r="59" spans="7:20" ht="18">
-      <c r="G59" s="75"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
     </row>
     <row r="60" spans="7:20" ht="18">
-      <c r="G60" s="71" t="s">
+      <c r="G60" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="79"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
     </row>
     <row r="61" spans="7:20" ht="20" customHeight="1">
-      <c r="G61" s="71"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="80" t="s">
+      <c r="G61" s="88"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="79"/>
-      <c r="R61" s="79"/>
-      <c r="S61" s="79"/>
-      <c r="T61" s="79"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
     </row>
     <row r="62" spans="7:20" ht="20" customHeight="1">
-      <c r="G62" s="75"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="79"/>
-      <c r="R62" s="79"/>
-      <c r="S62" s="79"/>
-      <c r="T62" s="79"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="87"/>
+      <c r="M62" s="97"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
     </row>
     <row r="63" spans="7:20" ht="20" customHeight="1">
-      <c r="G63" s="75"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="73" t="s">
+      <c r="G63" s="47"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="L63" s="46"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="79"/>
-      <c r="R63" s="79"/>
-      <c r="S63" s="79"/>
-      <c r="T63" s="79"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
     </row>
     <row r="64" spans="7:20" ht="20" customHeight="1">
-      <c r="G64" s="75"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
-      <c r="P64" s="79"/>
-      <c r="Q64" s="79"/>
-      <c r="R64" s="79"/>
-      <c r="S64" s="79"/>
-      <c r="T64" s="79"/>
-    </row>
-    <row r="65" spans="7:15" ht="20" customHeight="1">
-      <c r="G65" s="75"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-    </row>
-    <row r="66" spans="7:15" ht="20" customHeight="1">
-      <c r="G66" s="71" t="s">
+      <c r="G64" s="47"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+    </row>
+    <row r="65" spans="7:16" ht="20" customHeight="1">
+      <c r="G65" s="47"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="98"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+    </row>
+    <row r="66" spans="7:16" ht="20" customHeight="1">
+      <c r="G66" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H66" s="46" t="s">
+      <c r="H66" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-    </row>
-    <row r="67" spans="7:15" ht="20" customHeight="1">
-      <c r="G67" s="71"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="80" t="s">
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+    </row>
+    <row r="67" spans="7:16" ht="20" customHeight="1">
+      <c r="G67" s="88"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-    </row>
-    <row r="68" spans="7:15" ht="20" customHeight="1">
-      <c r="G68" s="75"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-    </row>
-    <row r="69" spans="7:15" ht="20" customHeight="1">
-      <c r="G69" s="75"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="74"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-    </row>
-    <row r="70" spans="7:15" ht="20" customHeight="1">
-      <c r="G70" s="75"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+    </row>
+    <row r="68" spans="7:16" ht="20" customHeight="1">
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+    </row>
+    <row r="69" spans="7:16" ht="20" customHeight="1">
+      <c r="G69" s="47"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+    </row>
+    <row r="70" spans="7:16" ht="20" customHeight="1">
+      <c r="G70" s="47"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
       <c r="L70" s="27"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="76"/>
-    </row>
-    <row r="71" spans="7:15" ht="20" customHeight="1">
-      <c r="G71" s="75"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+    </row>
+    <row r="71" spans="7:16" ht="20" customHeight="1">
+      <c r="G71" s="47"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
       <c r="L71" s="28"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-    </row>
-    <row r="72" spans="7:15" ht="20" customHeight="1">
-      <c r="G72" s="71" t="s">
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+    </row>
+    <row r="72" spans="7:16" ht="20" customHeight="1">
+      <c r="G72" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="28"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-    </row>
-    <row r="73" spans="7:15" ht="20" customHeight="1">
-      <c r="G73" s="71"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+    </row>
+    <row r="73" spans="7:16" ht="20" customHeight="1">
+      <c r="G73" s="88"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
       <c r="L73" s="28"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-    </row>
-    <row r="74" spans="7:15" ht="20" customHeight="1">
-      <c r="G74" s="75"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+    </row>
+    <row r="74" spans="7:16" ht="20" customHeight="1">
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
       <c r="L74" s="28"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="76"/>
-      <c r="O74" s="76"/>
-    </row>
-    <row r="78" spans="7:15" ht="20">
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+    </row>
+    <row r="78" spans="7:16" ht="20">
       <c r="L78" s="4"/>
       <c r="M78" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="N78" s="81"/>
-      <c r="O78" s="81"/>
-    </row>
-    <row r="79" spans="7:15" ht="20">
+      <c r="O78" s="4"/>
+      <c r="P78" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="7:16" ht="20">
       <c r="L79" s="2"/>
       <c r="M79" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N79" s="81"/>
-      <c r="O79" s="81"/>
-    </row>
-    <row r="80" spans="7:15" ht="20">
-      <c r="K80" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L80" s="43">
-        <v>0</v>
+      <c r="O79" s="2"/>
+      <c r="P79" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="7:16" ht="20">
+      <c r="K80" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="L80" s="108">
+        <v>10</v>
       </c>
       <c r="M80" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="N80" s="81"/>
-      <c r="O80" s="81"/>
-    </row>
-    <row r="81" spans="11:15" ht="20">
-      <c r="K81" s="42"/>
-      <c r="L81" s="43"/>
+      <c r="N80" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="O80" s="108">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="11:16" ht="20">
+      <c r="K81" s="110"/>
+      <c r="L81" s="108"/>
       <c r="M81" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N81" s="81"/>
-      <c r="O81" s="81"/>
-    </row>
-    <row r="82" spans="11:15" ht="20">
-      <c r="K82" s="42"/>
-      <c r="L82" s="43"/>
+      <c r="N81" s="110"/>
+      <c r="O81" s="108"/>
+      <c r="P81" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="11:16" ht="20">
+      <c r="K82" s="110"/>
+      <c r="L82" s="108"/>
       <c r="M82" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="N82" s="81"/>
-      <c r="O82" s="81"/>
-    </row>
-    <row r="83" spans="11:15" ht="20">
-      <c r="K83" s="42"/>
-      <c r="L83" s="43"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="108"/>
+      <c r="P82" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="11:16" ht="20">
+      <c r="K83" s="110"/>
+      <c r="L83" s="108"/>
       <c r="M83" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N83" s="81"/>
-      <c r="O83" s="81"/>
-    </row>
-    <row r="84" spans="11:15" ht="19">
+      <c r="N83" s="110"/>
+      <c r="O83" s="108"/>
+      <c r="P83" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="11:16" ht="19">
       <c r="L84" s="2"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="81"/>
-      <c r="O84" s="81"/>
-    </row>
-    <row r="85" spans="11:15" ht="17">
+      <c r="O84" s="2"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="11:16" ht="17">
       <c r="L85" s="5"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-    </row>
-    <row r="89" spans="11:15">
+      <c r="O85" s="5"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="89" spans="11:16">
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="11:15">
-      <c r="K90" s="59" t="s">
+    <row r="90" spans="11:16">
+      <c r="K90" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="L90" s="57" t="s">
+      <c r="L90" s="92" t="s">
         <v>98</v>
       </c>
       <c r="M90" s="31"/>
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
     </row>
-    <row r="91" spans="11:15">
-      <c r="K91" s="59"/>
-      <c r="L91" s="58"/>
+    <row r="91" spans="11:16">
+      <c r="K91" s="68"/>
+      <c r="L91" s="93"/>
       <c r="M91" s="31"/>
       <c r="N91" s="31"/>
       <c r="O91" s="31"/>
     </row>
-    <row r="92" spans="11:15">
-      <c r="K92" s="59"/>
-      <c r="L92" s="58"/>
+    <row r="92" spans="11:16">
+      <c r="K92" s="68"/>
+      <c r="L92" s="93"/>
       <c r="M92" s="31"/>
       <c r="N92" s="31"/>
       <c r="O92" s="31"/>
     </row>
-    <row r="93" spans="11:15">
-      <c r="K93" s="59"/>
-      <c r="L93" s="58"/>
+    <row r="93" spans="11:16">
+      <c r="K93" s="68"/>
+      <c r="L93" s="93"/>
       <c r="M93" s="31"/>
       <c r="N93" s="31"/>
       <c r="O93" s="31"/>
     </row>
-    <row r="94" spans="11:15">
-      <c r="K94" s="59"/>
-      <c r="L94" s="58"/>
-    </row>
-    <row r="95" spans="11:15">
-      <c r="K95" s="59"/>
-      <c r="L95" s="58"/>
-    </row>
-    <row r="96" spans="11:15">
-      <c r="K96" s="59"/>
-      <c r="L96" s="58"/>
+    <row r="94" spans="11:16">
+      <c r="K94" s="68"/>
+      <c r="L94" s="93"/>
+    </row>
+    <row r="95" spans="11:16">
+      <c r="K95" s="68"/>
+      <c r="L95" s="93"/>
+    </row>
+    <row r="96" spans="11:16">
+      <c r="K96" s="68"/>
+      <c r="L96" s="93"/>
     </row>
     <row r="97" spans="11:15">
-      <c r="K97" s="59"/>
-      <c r="L97" s="55"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="94"/>
     </row>
     <row r="98" spans="11:15">
-      <c r="K98" s="59"/>
-      <c r="L98" s="43" t="s">
+      <c r="K98" s="68"/>
+      <c r="L98" s="95" t="s">
         <v>100</v>
       </c>
       <c r="M98" s="31"/>
@@ -5764,23 +5836,23 @@
       <c r="O98" s="31"/>
     </row>
     <row r="99" spans="11:15">
-      <c r="K99" s="59"/>
-      <c r="L99" s="43"/>
+      <c r="K99" s="68"/>
+      <c r="L99" s="95"/>
       <c r="M99" s="31"/>
       <c r="N99" s="31"/>
       <c r="O99" s="31"/>
     </row>
     <row r="100" spans="11:15">
-      <c r="K100" s="59"/>
-      <c r="L100" s="43"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="95"/>
     </row>
     <row r="101" spans="11:15">
-      <c r="K101" s="59"/>
-      <c r="L101" s="43"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="95"/>
     </row>
     <row r="102" spans="11:15">
-      <c r="K102" s="59"/>
-      <c r="L102" s="43" t="s">
+      <c r="K102" s="68"/>
+      <c r="L102" s="95" t="s">
         <v>99</v>
       </c>
       <c r="M102" s="31"/>
@@ -5788,19 +5860,19 @@
       <c r="O102" s="31"/>
     </row>
     <row r="103" spans="11:15">
-      <c r="K103" s="59"/>
-      <c r="L103" s="43"/>
+      <c r="K103" s="68"/>
+      <c r="L103" s="95"/>
       <c r="M103" s="31"/>
       <c r="N103" s="31"/>
       <c r="O103" s="31"/>
     </row>
     <row r="104" spans="11:15">
-      <c r="K104" s="59"/>
-      <c r="L104" s="43"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="95"/>
     </row>
     <row r="105" spans="11:15">
-      <c r="K105" s="59"/>
-      <c r="L105" s="43"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="95"/>
     </row>
     <row r="106" spans="11:15">
       <c r="L106" s="21"/>
@@ -5809,10 +5881,10 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="11:15">
-      <c r="K123" s="59" t="s">
+      <c r="K123" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="L123" s="57" t="s">
+      <c r="L123" s="92" t="s">
         <v>103</v>
       </c>
       <c r="M123" s="31"/>
@@ -5820,45 +5892,45 @@
       <c r="O123" s="31"/>
     </row>
     <row r="124" spans="11:15">
-      <c r="K124" s="59"/>
-      <c r="L124" s="58"/>
+      <c r="K124" s="68"/>
+      <c r="L124" s="93"/>
       <c r="M124" s="31"/>
       <c r="N124" s="31"/>
       <c r="O124" s="31"/>
     </row>
     <row r="125" spans="11:15">
-      <c r="K125" s="59"/>
-      <c r="L125" s="58"/>
+      <c r="K125" s="68"/>
+      <c r="L125" s="93"/>
       <c r="M125" s="31"/>
       <c r="N125" s="31"/>
       <c r="O125" s="31"/>
     </row>
     <row r="126" spans="11:15">
-      <c r="K126" s="59"/>
-      <c r="L126" s="58"/>
+      <c r="K126" s="68"/>
+      <c r="L126" s="93"/>
       <c r="M126" s="31"/>
       <c r="N126" s="31"/>
       <c r="O126" s="31"/>
     </row>
     <row r="127" spans="11:15">
-      <c r="K127" s="59"/>
-      <c r="L127" s="58"/>
+      <c r="K127" s="68"/>
+      <c r="L127" s="93"/>
     </row>
     <row r="128" spans="11:15">
-      <c r="K128" s="59"/>
-      <c r="L128" s="58"/>
+      <c r="K128" s="68"/>
+      <c r="L128" s="93"/>
     </row>
     <row r="129" spans="3:15">
-      <c r="K129" s="59"/>
-      <c r="L129" s="58"/>
+      <c r="K129" s="68"/>
+      <c r="L129" s="93"/>
     </row>
     <row r="130" spans="3:15">
-      <c r="K130" s="59"/>
-      <c r="L130" s="55"/>
+      <c r="K130" s="68"/>
+      <c r="L130" s="94"/>
     </row>
     <row r="131" spans="3:15">
-      <c r="K131" s="59"/>
-      <c r="L131" s="43" t="s">
+      <c r="K131" s="68"/>
+      <c r="L131" s="95" t="s">
         <v>104</v>
       </c>
       <c r="M131" s="31"/>
@@ -5866,19 +5938,19 @@
       <c r="O131" s="31"/>
     </row>
     <row r="132" spans="3:15">
-      <c r="K132" s="59"/>
-      <c r="L132" s="43"/>
+      <c r="K132" s="68"/>
+      <c r="L132" s="95"/>
       <c r="M132" s="31"/>
       <c r="N132" s="31"/>
       <c r="O132" s="31"/>
     </row>
     <row r="133" spans="3:15">
-      <c r="K133" s="59"/>
-      <c r="L133" s="43"/>
+      <c r="K133" s="68"/>
+      <c r="L133" s="95"/>
     </row>
     <row r="134" spans="3:15">
-      <c r="K134" s="59"/>
-      <c r="L134" s="43"/>
+      <c r="K134" s="68"/>
+      <c r="L134" s="95"/>
     </row>
     <row r="135" spans="3:15">
       <c r="K135" s="32"/>
@@ -5893,514 +5965,494 @@
       <c r="O136" s="31"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="108"/>
-      <c r="D140" s="109" t="s">
+      <c r="C140" s="64"/>
+      <c r="D140" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E140" s="107"/>
+      <c r="E140" s="63"/>
     </row>
     <row r="141" spans="3:15" ht="4" customHeight="1">
-      <c r="C141" s="59"/>
+      <c r="C141" s="68"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="89" t="s">
+      <c r="E141" s="70" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="142" spans="3:15" ht="4" customHeight="1">
-      <c r="C142" s="59"/>
+      <c r="C142" s="68"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="89"/>
+      <c r="E142" s="70"/>
     </row>
     <row r="143" spans="3:15" ht="4" customHeight="1">
-      <c r="C143" s="59"/>
+      <c r="C143" s="68"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="89"/>
+      <c r="E143" s="70"/>
     </row>
     <row r="144" spans="3:15" ht="4" customHeight="1">
-      <c r="C144" s="59"/>
+      <c r="C144" s="68"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="89"/>
+      <c r="E144" s="70"/>
     </row>
     <row r="145" spans="3:5" ht="4" customHeight="1">
-      <c r="C145" s="59"/>
+      <c r="C145" s="68"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="89"/>
+      <c r="E145" s="70"/>
     </row>
     <row r="146" spans="3:5" ht="4" customHeight="1">
-      <c r="C146" s="59"/>
+      <c r="C146" s="68"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="89"/>
+      <c r="E146" s="70"/>
     </row>
     <row r="147" spans="3:5" ht="4" customHeight="1">
-      <c r="C147" s="59"/>
+      <c r="C147" s="68"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="89"/>
+      <c r="E147" s="70"/>
     </row>
     <row r="148" spans="3:5" ht="4" customHeight="1">
-      <c r="C148" s="97"/>
+      <c r="C148" s="69"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="100"/>
+      <c r="E148" s="71"/>
     </row>
     <row r="149" spans="3:5" ht="4" customHeight="1">
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="56" t="s">
+      <c r="E149" s="79" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="150" spans="3:5" ht="4" customHeight="1">
-      <c r="C150" s="42"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="56"/>
+      <c r="E150" s="79"/>
     </row>
     <row r="151" spans="3:5" ht="4" customHeight="1">
-      <c r="C151" s="42"/>
+      <c r="C151" s="66"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="56"/>
+      <c r="E151" s="79"/>
     </row>
     <row r="152" spans="3:5" ht="4" customHeight="1">
-      <c r="C152" s="42"/>
+      <c r="C152" s="66"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="56"/>
+      <c r="E152" s="79"/>
     </row>
     <row r="153" spans="3:5" ht="4" customHeight="1">
-      <c r="C153" s="42"/>
+      <c r="C153" s="66"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="56"/>
+      <c r="E153" s="79"/>
     </row>
     <row r="154" spans="3:5" ht="4" customHeight="1">
-      <c r="C154" s="42"/>
+      <c r="C154" s="66"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="56"/>
+      <c r="E154" s="79"/>
     </row>
     <row r="155" spans="3:5" ht="4" customHeight="1">
-      <c r="C155" s="42"/>
+      <c r="C155" s="66"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="56"/>
+      <c r="E155" s="79"/>
     </row>
     <row r="156" spans="3:5" ht="4" customHeight="1">
-      <c r="C156" s="42"/>
+      <c r="C156" s="66"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="56"/>
+      <c r="E156" s="79"/>
     </row>
     <row r="157" spans="3:5" ht="4" customHeight="1">
-      <c r="C157" s="42"/>
+      <c r="C157" s="66"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="99" t="s">
+      <c r="E157" s="80" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="3:5" ht="4" customHeight="1">
-      <c r="C158" s="42"/>
+      <c r="C158" s="66"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="89"/>
+      <c r="E158" s="70"/>
     </row>
     <row r="159" spans="3:5" ht="4" customHeight="1">
-      <c r="C159" s="42"/>
+      <c r="C159" s="66"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="89"/>
+      <c r="E159" s="70"/>
     </row>
     <row r="160" spans="3:5" ht="4" customHeight="1">
-      <c r="C160" s="42"/>
+      <c r="C160" s="66"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="89"/>
+      <c r="E160" s="70"/>
     </row>
     <row r="161" spans="3:5" ht="4" customHeight="1">
-      <c r="C161" s="42"/>
+      <c r="C161" s="66"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="89"/>
+      <c r="E161" s="70"/>
     </row>
     <row r="162" spans="3:5" ht="4" customHeight="1">
-      <c r="C162" s="42"/>
+      <c r="C162" s="66"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="89"/>
+      <c r="E162" s="70"/>
     </row>
     <row r="163" spans="3:5" ht="4" customHeight="1">
-      <c r="C163" s="42"/>
+      <c r="C163" s="66"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="89"/>
+      <c r="E163" s="70"/>
     </row>
     <row r="164" spans="3:5" ht="4" customHeight="1">
-      <c r="C164" s="42"/>
+      <c r="C164" s="66"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="100"/>
+      <c r="E164" s="71"/>
     </row>
     <row r="165" spans="3:5" ht="4" customHeight="1">
-      <c r="C165" s="42"/>
+      <c r="C165" s="66"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="56" t="s">
+      <c r="E165" s="79" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="166" spans="3:5" ht="4" customHeight="1">
-      <c r="C166" s="42"/>
+      <c r="C166" s="66"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="56"/>
+      <c r="E166" s="79"/>
     </row>
     <row r="167" spans="3:5" ht="4" customHeight="1">
-      <c r="C167" s="42"/>
+      <c r="C167" s="66"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="56"/>
+      <c r="E167" s="79"/>
     </row>
     <row r="168" spans="3:5" ht="4" customHeight="1">
-      <c r="C168" s="42"/>
+      <c r="C168" s="66"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="56"/>
+      <c r="E168" s="79"/>
     </row>
     <row r="169" spans="3:5" ht="4" customHeight="1">
-      <c r="C169" s="42"/>
+      <c r="C169" s="66"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="56"/>
+      <c r="E169" s="79"/>
     </row>
     <row r="170" spans="3:5" ht="4" customHeight="1">
-      <c r="C170" s="42"/>
+      <c r="C170" s="66"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="56"/>
+      <c r="E170" s="79"/>
     </row>
     <row r="171" spans="3:5" ht="4" customHeight="1">
-      <c r="C171" s="42"/>
-      <c r="D171" s="96"/>
-      <c r="E171" s="56"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="56"/>
+      <c r="E171" s="79"/>
     </row>
     <row r="172" spans="3:5" ht="4" customHeight="1">
-      <c r="C172" s="42"/>
+      <c r="C172" s="66"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="56"/>
+      <c r="E172" s="79"/>
     </row>
     <row r="173" spans="3:5" ht="4" customHeight="1">
-      <c r="C173" s="42"/>
+      <c r="C173" s="66"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="99" t="s">
+      <c r="E173" s="80" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="174" spans="3:5" ht="4" customHeight="1">
-      <c r="C174" s="42"/>
+      <c r="C174" s="66"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="89"/>
+      <c r="E174" s="70"/>
     </row>
     <row r="175" spans="3:5" ht="4" customHeight="1">
-      <c r="C175" s="42"/>
+      <c r="C175" s="66"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="89"/>
+      <c r="E175" s="70"/>
     </row>
     <row r="176" spans="3:5" ht="4" customHeight="1">
-      <c r="C176" s="42"/>
+      <c r="C176" s="66"/>
       <c r="D176" s="2"/>
-      <c r="E176" s="89"/>
+      <c r="E176" s="70"/>
     </row>
     <row r="177" spans="3:5" ht="4" customHeight="1">
-      <c r="C177" s="42"/>
+      <c r="C177" s="66"/>
       <c r="D177" s="2"/>
-      <c r="E177" s="89"/>
+      <c r="E177" s="70"/>
     </row>
     <row r="178" spans="3:5" ht="4" customHeight="1">
-      <c r="C178" s="42"/>
+      <c r="C178" s="66"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="89"/>
+      <c r="E178" s="70"/>
     </row>
     <row r="179" spans="3:5" ht="4" customHeight="1">
-      <c r="C179" s="42"/>
+      <c r="C179" s="66"/>
       <c r="D179" s="2"/>
-      <c r="E179" s="89"/>
+      <c r="E179" s="70"/>
     </row>
     <row r="180" spans="3:5" ht="4" customHeight="1">
-      <c r="C180" s="42"/>
+      <c r="C180" s="66"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="100"/>
+      <c r="E180" s="71"/>
     </row>
     <row r="181" spans="3:5" ht="4" customHeight="1">
-      <c r="C181" s="98" t="s">
+      <c r="C181" s="67" t="s">
         <v>151</v>
       </c>
       <c r="D181" s="2"/>
-      <c r="E181" s="99" t="s">
+      <c r="E181" s="80" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="182" spans="3:5" ht="4" customHeight="1">
-      <c r="C182" s="59"/>
+      <c r="C182" s="68"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="89"/>
+      <c r="E182" s="70"/>
     </row>
     <row r="183" spans="3:5" ht="4" customHeight="1">
-      <c r="C183" s="59"/>
+      <c r="C183" s="68"/>
       <c r="D183" s="2"/>
-      <c r="E183" s="89"/>
+      <c r="E183" s="70"/>
     </row>
     <row r="184" spans="3:5" ht="4" customHeight="1">
-      <c r="C184" s="59"/>
+      <c r="C184" s="68"/>
       <c r="D184" s="2"/>
-      <c r="E184" s="89"/>
+      <c r="E184" s="70"/>
     </row>
     <row r="185" spans="3:5" ht="4" customHeight="1">
-      <c r="C185" s="59"/>
+      <c r="C185" s="68"/>
       <c r="D185" s="2"/>
-      <c r="E185" s="89"/>
+      <c r="E185" s="70"/>
     </row>
     <row r="186" spans="3:5" ht="4" customHeight="1">
-      <c r="C186" s="59"/>
+      <c r="C186" s="68"/>
       <c r="D186" s="2"/>
-      <c r="E186" s="89"/>
+      <c r="E186" s="70"/>
     </row>
     <row r="187" spans="3:5" ht="4" customHeight="1">
-      <c r="C187" s="59"/>
+      <c r="C187" s="68"/>
       <c r="D187" s="2"/>
-      <c r="E187" s="89"/>
+      <c r="E187" s="70"/>
     </row>
     <row r="188" spans="3:5" ht="4" customHeight="1">
-      <c r="C188" s="59"/>
+      <c r="C188" s="68"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="100"/>
+      <c r="E188" s="71"/>
     </row>
     <row r="189" spans="3:5" ht="4" customHeight="1">
-      <c r="C189" s="59"/>
+      <c r="C189" s="68"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="99" t="s">
+      <c r="E189" s="80" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="190" spans="3:5" ht="4" customHeight="1">
-      <c r="C190" s="59"/>
+      <c r="C190" s="68"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="89"/>
+      <c r="E190" s="70"/>
     </row>
     <row r="191" spans="3:5" ht="4" customHeight="1">
-      <c r="C191" s="59"/>
+      <c r="C191" s="68"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="89"/>
+      <c r="E191" s="70"/>
     </row>
     <row r="192" spans="3:5" ht="4" customHeight="1">
-      <c r="C192" s="59"/>
+      <c r="C192" s="68"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="89"/>
+      <c r="E192" s="70"/>
     </row>
     <row r="193" spans="3:5" ht="4" customHeight="1">
-      <c r="C193" s="59"/>
+      <c r="C193" s="68"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="89"/>
+      <c r="E193" s="70"/>
     </row>
     <row r="194" spans="3:5" ht="4" customHeight="1">
-      <c r="C194" s="59"/>
+      <c r="C194" s="68"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="89"/>
+      <c r="E194" s="70"/>
     </row>
     <row r="195" spans="3:5" ht="4" customHeight="1">
-      <c r="C195" s="59"/>
+      <c r="C195" s="68"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="89"/>
+      <c r="E195" s="70"/>
     </row>
     <row r="196" spans="3:5" ht="4" customHeight="1">
-      <c r="C196" s="59"/>
+      <c r="C196" s="68"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="100"/>
+      <c r="E196" s="71"/>
     </row>
     <row r="197" spans="3:5" ht="4" customHeight="1">
-      <c r="C197" s="59"/>
+      <c r="C197" s="68"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="99" t="s">
+      <c r="E197" s="80" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="198" spans="3:5" ht="4" customHeight="1">
-      <c r="C198" s="59"/>
+      <c r="C198" s="68"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="89"/>
+      <c r="E198" s="70"/>
     </row>
     <row r="199" spans="3:5" ht="4" customHeight="1">
-      <c r="C199" s="59"/>
+      <c r="C199" s="68"/>
       <c r="D199" s="2"/>
-      <c r="E199" s="89"/>
+      <c r="E199" s="70"/>
     </row>
     <row r="200" spans="3:5" ht="4" customHeight="1">
-      <c r="C200" s="59"/>
+      <c r="C200" s="68"/>
       <c r="D200" s="2"/>
-      <c r="E200" s="89"/>
+      <c r="E200" s="70"/>
     </row>
     <row r="201" spans="3:5" ht="4" customHeight="1">
-      <c r="C201" s="59"/>
+      <c r="C201" s="68"/>
       <c r="D201" s="2"/>
-      <c r="E201" s="89"/>
+      <c r="E201" s="70"/>
     </row>
     <row r="202" spans="3:5" ht="4" customHeight="1">
-      <c r="C202" s="59"/>
+      <c r="C202" s="68"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="89"/>
+      <c r="E202" s="70"/>
     </row>
     <row r="203" spans="3:5" ht="4" customHeight="1">
-      <c r="C203" s="59"/>
+      <c r="C203" s="68"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="89"/>
+      <c r="E203" s="70"/>
     </row>
     <row r="204" spans="3:5" ht="4" customHeight="1">
-      <c r="C204" s="59"/>
-      <c r="D204" s="96"/>
-      <c r="E204" s="100"/>
+      <c r="C204" s="68"/>
+      <c r="D204" s="56"/>
+      <c r="E204" s="71"/>
     </row>
     <row r="205" spans="3:5" ht="4" customHeight="1">
-      <c r="C205" s="59"/>
+      <c r="C205" s="68"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="56" t="s">
+      <c r="E205" s="79" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="206" spans="3:5" ht="4" customHeight="1">
-      <c r="C206" s="59"/>
+      <c r="C206" s="68"/>
       <c r="D206" s="2"/>
-      <c r="E206" s="56"/>
+      <c r="E206" s="79"/>
     </row>
     <row r="207" spans="3:5" ht="4" customHeight="1">
-      <c r="C207" s="59"/>
+      <c r="C207" s="68"/>
       <c r="D207" s="2"/>
-      <c r="E207" s="56"/>
+      <c r="E207" s="79"/>
     </row>
     <row r="208" spans="3:5" ht="4" customHeight="1">
-      <c r="C208" s="59"/>
+      <c r="C208" s="68"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="56"/>
+      <c r="E208" s="79"/>
     </row>
     <row r="209" spans="1:7" ht="4" customHeight="1">
-      <c r="C209" s="59"/>
+      <c r="C209" s="68"/>
       <c r="D209" s="2"/>
-      <c r="E209" s="56"/>
+      <c r="E209" s="79"/>
     </row>
     <row r="210" spans="1:7" ht="4" customHeight="1">
-      <c r="C210" s="59"/>
+      <c r="C210" s="68"/>
       <c r="D210" s="2"/>
-      <c r="E210" s="56"/>
+      <c r="E210" s="79"/>
     </row>
     <row r="211" spans="1:7" ht="4" customHeight="1">
-      <c r="C211" s="59"/>
+      <c r="C211" s="68"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="56"/>
+      <c r="E211" s="79"/>
     </row>
     <row r="212" spans="1:7" ht="4" customHeight="1">
-      <c r="C212" s="97"/>
+      <c r="C212" s="69"/>
       <c r="D212" s="2"/>
-      <c r="E212" s="56"/>
+      <c r="E212" s="79"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="D213" s="106"/>
-      <c r="E213" s="101"/>
+      <c r="D213" s="62"/>
+      <c r="E213" s="57"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="103"/>
-      <c r="C214" s="102"/>
-      <c r="E214" s="105"/>
-      <c r="G214" s="102"/>
+      <c r="A214" s="59"/>
+      <c r="C214" s="58"/>
+      <c r="E214" s="61"/>
+      <c r="G214" s="58"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="B215" s="90" t="s">
+      <c r="B215" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C215" s="89" t="s">
+      <c r="C215" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="E215" s="88" t="s">
+      <c r="E215" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F215" s="93" t="s">
+      <c r="F215" s="72" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="B216" s="91"/>
-      <c r="C216" s="89"/>
-      <c r="E216" s="88"/>
-      <c r="F216" s="94"/>
+      <c r="B216" s="76"/>
+      <c r="C216" s="70"/>
+      <c r="E216" s="78"/>
+      <c r="F216" s="73"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="B217" s="91"/>
-      <c r="C217" s="89"/>
-      <c r="E217" s="88"/>
-      <c r="F217" s="94"/>
+      <c r="B217" s="76"/>
+      <c r="C217" s="70"/>
+      <c r="E217" s="78"/>
+      <c r="F217" s="73"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="B218" s="92"/>
-      <c r="C218" s="89"/>
-      <c r="E218" s="88"/>
-      <c r="F218" s="95"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="70"/>
+      <c r="E218" s="78"/>
+      <c r="F218" s="74"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="B219" s="104"/>
-      <c r="C219" s="102"/>
-      <c r="F219" s="104"/>
-      <c r="G219" s="102"/>
+      <c r="B219" s="60"/>
+      <c r="C219" s="58"/>
+      <c r="F219" s="60"/>
+      <c r="G219" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
-    <mergeCell ref="C149:C180"/>
-    <mergeCell ref="C181:C212"/>
-    <mergeCell ref="E141:E148"/>
-    <mergeCell ref="C141:C148"/>
-    <mergeCell ref="F215:F218"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="C215:C218"/>
-    <mergeCell ref="E215:E218"/>
-    <mergeCell ref="E149:E156"/>
-    <mergeCell ref="E157:E164"/>
-    <mergeCell ref="E165:E172"/>
-    <mergeCell ref="E173:E180"/>
-    <mergeCell ref="E181:E188"/>
-    <mergeCell ref="E189:E196"/>
-    <mergeCell ref="E197:E204"/>
-    <mergeCell ref="E205:E212"/>
-    <mergeCell ref="CF9:CF12"/>
-    <mergeCell ref="CG9:CG12"/>
-    <mergeCell ref="CF13:CF16"/>
-    <mergeCell ref="CG13:CG16"/>
-    <mergeCell ref="CD16:CD17"/>
-    <mergeCell ref="CE16:CE17"/>
-    <mergeCell ref="CF17:CF20"/>
-    <mergeCell ref="CG17:CG20"/>
-    <mergeCell ref="CF21:CF24"/>
-    <mergeCell ref="CG21:CG24"/>
-    <mergeCell ref="CC20:CD20"/>
-    <mergeCell ref="BZ9:BZ12"/>
-    <mergeCell ref="CA9:CA12"/>
-    <mergeCell ref="BZ13:BZ16"/>
-    <mergeCell ref="CA13:CA16"/>
-    <mergeCell ref="BX16:BX17"/>
-    <mergeCell ref="BY16:BY17"/>
-    <mergeCell ref="BZ17:BZ20"/>
-    <mergeCell ref="CA17:CA20"/>
-    <mergeCell ref="BZ21:BZ24"/>
-    <mergeCell ref="CA21:CA24"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="BU7:BU10"/>
-    <mergeCell ref="BT7:BT10"/>
-    <mergeCell ref="BR14:BR17"/>
-    <mergeCell ref="BS14:BS17"/>
-    <mergeCell ref="BP21:BP24"/>
-    <mergeCell ref="BQ21:BQ24"/>
-    <mergeCell ref="L123:L130"/>
-    <mergeCell ref="L131:L134"/>
-    <mergeCell ref="K123:K134"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="L98:L101"/>
-    <mergeCell ref="L102:L105"/>
-    <mergeCell ref="K90:K105"/>
-    <mergeCell ref="L90:L97"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="L51:L56"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K63:K68"/>
-    <mergeCell ref="L63:L68"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="K57:K62"/>
+  <mergeCells count="144">
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="BK12:BK15"/>
+    <mergeCell ref="BL12:BL15"/>
+    <mergeCell ref="BK16:BK19"/>
+    <mergeCell ref="BK23:BK26"/>
+    <mergeCell ref="BL23:BL26"/>
+    <mergeCell ref="BC7:BC10"/>
+    <mergeCell ref="BC15:BC18"/>
+    <mergeCell ref="BC19:BC22"/>
+    <mergeCell ref="BF7:BF10"/>
+    <mergeCell ref="BG7:BG10"/>
+    <mergeCell ref="BF15:BF18"/>
+    <mergeCell ref="BG15:BG18"/>
+    <mergeCell ref="BF19:BF22"/>
+    <mergeCell ref="BG19:BG22"/>
+    <mergeCell ref="AP7:AP10"/>
+    <mergeCell ref="BB7:BB10"/>
+    <mergeCell ref="BB15:BB18"/>
+    <mergeCell ref="BB19:BB22"/>
+    <mergeCell ref="AX7:AX10"/>
+    <mergeCell ref="AY7:AY10"/>
+    <mergeCell ref="AX15:AX18"/>
+    <mergeCell ref="AY15:AY18"/>
+    <mergeCell ref="AX19:AX22"/>
+    <mergeCell ref="AY19:AY22"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="AT7:AT10"/>
+    <mergeCell ref="AU7:AU10"/>
+    <mergeCell ref="AT15:AT18"/>
+    <mergeCell ref="AU15:AU18"/>
+    <mergeCell ref="AT19:AT22"/>
+    <mergeCell ref="AU19:AU22"/>
+    <mergeCell ref="AM21:AM24"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="W9:W12"/>
+    <mergeCell ref="V13:V16"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="W21:W24"/>
     <mergeCell ref="L57:L62"/>
     <mergeCell ref="AQ7:AQ10"/>
     <mergeCell ref="AQ15:AQ18"/>
@@ -6425,54 +6477,76 @@
     <mergeCell ref="AE21:AE24"/>
     <mergeCell ref="AD21:AD24"/>
     <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="AT7:AT10"/>
-    <mergeCell ref="AU7:AU10"/>
-    <mergeCell ref="AT15:AT18"/>
-    <mergeCell ref="AU15:AU18"/>
-    <mergeCell ref="AT19:AT22"/>
-    <mergeCell ref="AU19:AU22"/>
-    <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="V9:V12"/>
-    <mergeCell ref="W9:W12"/>
-    <mergeCell ref="V13:V16"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="W17:W20"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="W21:W24"/>
-    <mergeCell ref="AP7:AP10"/>
-    <mergeCell ref="BB7:BB10"/>
-    <mergeCell ref="BB15:BB18"/>
-    <mergeCell ref="BB19:BB22"/>
-    <mergeCell ref="AX7:AX10"/>
-    <mergeCell ref="AY7:AY10"/>
-    <mergeCell ref="AX15:AX18"/>
-    <mergeCell ref="AY15:AY18"/>
-    <mergeCell ref="AX19:AX22"/>
-    <mergeCell ref="AY19:AY22"/>
-    <mergeCell ref="BK12:BK15"/>
-    <mergeCell ref="BL12:BL15"/>
-    <mergeCell ref="BK16:BK19"/>
-    <mergeCell ref="BK23:BK26"/>
-    <mergeCell ref="BL23:BL26"/>
-    <mergeCell ref="BC7:BC10"/>
-    <mergeCell ref="BC15:BC18"/>
-    <mergeCell ref="BC19:BC22"/>
-    <mergeCell ref="BF7:BF10"/>
-    <mergeCell ref="BG7:BG10"/>
-    <mergeCell ref="BF15:BF18"/>
-    <mergeCell ref="BG15:BG18"/>
-    <mergeCell ref="BF19:BF22"/>
-    <mergeCell ref="BG19:BG22"/>
+    <mergeCell ref="L123:L130"/>
+    <mergeCell ref="L131:L134"/>
+    <mergeCell ref="K123:K134"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="L98:L101"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="K90:K105"/>
+    <mergeCell ref="L90:L97"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="BU7:BU10"/>
+    <mergeCell ref="BT7:BT10"/>
+    <mergeCell ref="BR14:BR17"/>
+    <mergeCell ref="BS14:BS17"/>
+    <mergeCell ref="BP21:BP24"/>
+    <mergeCell ref="BQ21:BQ24"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="L51:L56"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K63:K68"/>
+    <mergeCell ref="L63:L68"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="BZ9:BZ12"/>
+    <mergeCell ref="CA9:CA12"/>
+    <mergeCell ref="BZ13:BZ16"/>
+    <mergeCell ref="CA13:CA16"/>
+    <mergeCell ref="BX16:BX17"/>
+    <mergeCell ref="BY16:BY17"/>
+    <mergeCell ref="BZ17:BZ20"/>
+    <mergeCell ref="CA17:CA20"/>
+    <mergeCell ref="BZ21:BZ24"/>
+    <mergeCell ref="CA21:CA24"/>
+    <mergeCell ref="CF9:CF12"/>
+    <mergeCell ref="CG9:CG12"/>
+    <mergeCell ref="CF13:CF16"/>
+    <mergeCell ref="CG13:CG16"/>
+    <mergeCell ref="CD16:CD17"/>
+    <mergeCell ref="CE16:CE17"/>
+    <mergeCell ref="CF17:CF20"/>
+    <mergeCell ref="CG17:CG20"/>
+    <mergeCell ref="CF21:CF24"/>
+    <mergeCell ref="CG21:CG24"/>
+    <mergeCell ref="CC20:CD20"/>
+    <mergeCell ref="C149:C180"/>
+    <mergeCell ref="C181:C212"/>
+    <mergeCell ref="E141:E148"/>
+    <mergeCell ref="C141:C148"/>
+    <mergeCell ref="F215:F218"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="C215:C218"/>
+    <mergeCell ref="E215:E218"/>
+    <mergeCell ref="E149:E156"/>
+    <mergeCell ref="E157:E164"/>
+    <mergeCell ref="E165:E172"/>
+    <mergeCell ref="E173:E180"/>
+    <mergeCell ref="E181:E188"/>
+    <mergeCell ref="E189:E196"/>
+    <mergeCell ref="E197:E204"/>
+    <mergeCell ref="E205:E212"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week04/array-illustration.xlsx
+++ b/week04/array-illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushiqi/git/CPP/week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836400FE-1871-654E-B4C8-8ABB91EE9C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EABF0E-D89F-FA49-99D2-A5EA99A29B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="36580" windowHeight="28300" xr2:uid="{65DC6EA1-CAD2-DA43-82E3-93A6944CF004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1430,6 +1430,15 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,30 +1451,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,15 +1486,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3110,9 +3110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3150,7 +3150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3256,7 +3256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3398,7 +3398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3408,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610120C-2380-2A44-9250-E87FF4DB0425}">
   <dimension ref="A3:CH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="U97" sqref="U96:U97"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80:L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3709,19 +3709,19 @@
       </c>
     </row>
     <row r="9" spans="12:86" ht="20">
-      <c r="Q9" s="102">
+      <c r="Q9" s="104">
         <v>3</v>
       </c>
-      <c r="R9" s="100">
+      <c r="R9" s="102">
         <v>6</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="102" t="s">
+      <c r="V9" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="100">
+      <c r="W9" s="102">
         <v>16</v>
       </c>
       <c r="X9" s="7" t="s">
@@ -3790,13 +3790,13 @@
       </c>
     </row>
     <row r="10" spans="12:86" ht="20">
-      <c r="Q10" s="102"/>
-      <c r="R10" s="100"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="102"/>
       <c r="S10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="102"/>
-      <c r="W10" s="100"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="102"/>
       <c r="X10" s="7" t="s">
         <v>16</v>
       </c>
@@ -3862,13 +3862,13 @@
       <c r="M11" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="100"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="102"/>
       <c r="S11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="102"/>
-      <c r="W11" s="100"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="102"/>
       <c r="X11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3928,13 +3928,13 @@
       <c r="M12" t="s">
         <v>108</v>
       </c>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="100"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="102"/>
       <c r="S12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="102"/>
-      <c r="W12" s="100"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="102"/>
       <c r="X12" s="7" t="s">
         <v>18</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="BK12" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="BL12" s="95">
+      <c r="BL12" s="98">
         <v>2002</v>
       </c>
       <c r="BM12" t="s">
@@ -3996,19 +3996,19 @@
       <c r="M13" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="104">
         <v>2</v>
       </c>
-      <c r="R13" s="100">
+      <c r="R13" s="102">
         <v>7</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="102" t="s">
+      <c r="V13" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="100">
+      <c r="W13" s="102">
         <v>15</v>
       </c>
       <c r="X13" s="7" t="s">
@@ -4021,14 +4021,14 @@
       <c r="AD13" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" s="103"/>
+      <c r="AE13" s="105"/>
       <c r="AF13">
         <v>11</v>
       </c>
       <c r="AH13" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AI13" s="103"/>
+      <c r="AI13" s="105"/>
       <c r="AJ13">
         <v>11</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="BG13" s="28"/>
       <c r="BH13" s="24"/>
       <c r="BK13" s="66"/>
-      <c r="BL13" s="95"/>
+      <c r="BL13" s="98"/>
       <c r="BM13" t="s">
         <v>123</v>
       </c>
@@ -4084,13 +4084,13 @@
       <c r="M14" t="s">
         <v>106</v>
       </c>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="100"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="102"/>
       <c r="S14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="102"/>
-      <c r="W14" s="100"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="102"/>
       <c r="X14" s="7" t="s">
         <v>20</v>
       </c>
@@ -4099,12 +4099,12 @@
         <v>9</v>
       </c>
       <c r="AD14" s="66"/>
-      <c r="AE14" s="103"/>
+      <c r="AE14" s="105"/>
       <c r="AF14">
         <v>10</v>
       </c>
       <c r="AH14" s="66"/>
-      <c r="AI14" s="103"/>
+      <c r="AI14" s="105"/>
       <c r="AJ14">
         <v>10</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="BG14" s="29"/>
       <c r="BH14" s="24"/>
       <c r="BK14" s="66"/>
-      <c r="BL14" s="95"/>
+      <c r="BL14" s="98"/>
       <c r="BM14" t="s">
         <v>124</v>
       </c>
@@ -4171,13 +4171,13 @@
       <c r="M15" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="100"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="102"/>
       <c r="S15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="V15" s="102"/>
-      <c r="W15" s="100"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="102"/>
       <c r="X15" s="7" t="s">
         <v>21</v>
       </c>
@@ -4191,12 +4191,12 @@
         <v>8</v>
       </c>
       <c r="AD15" s="66"/>
-      <c r="AE15" s="103"/>
+      <c r="AE15" s="105"/>
       <c r="AF15">
         <v>9</v>
       </c>
       <c r="AH15" s="66"/>
-      <c r="AI15" s="103"/>
+      <c r="AI15" s="105"/>
       <c r="AJ15">
         <v>9</v>
       </c>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="BH15" s="24"/>
       <c r="BK15" s="66"/>
-      <c r="BL15" s="95"/>
+      <c r="BL15" s="98"/>
       <c r="BM15" t="s">
         <v>125</v>
       </c>
@@ -4267,32 +4267,32 @@
       <c r="M16" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="100"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="102"/>
       <c r="S16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="102"/>
-      <c r="W16" s="100"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="102"/>
       <c r="X16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="102" t="s">
+      <c r="Z16" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="AA16" s="95">
+      <c r="AA16" s="98">
         <v>2000</v>
       </c>
       <c r="AB16">
         <v>7</v>
       </c>
       <c r="AD16" s="66"/>
-      <c r="AE16" s="103"/>
+      <c r="AE16" s="105"/>
       <c r="AF16">
         <v>8</v>
       </c>
       <c r="AH16" s="66"/>
-      <c r="AI16" s="103"/>
+      <c r="AI16" s="105"/>
       <c r="AJ16">
         <v>8</v>
       </c>
@@ -4353,26 +4353,26 @@
       <c r="M17" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="102">
+      <c r="Q17" s="104">
         <v>1</v>
       </c>
-      <c r="R17" s="100">
+      <c r="R17" s="102">
         <v>8</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V17" s="102" t="s">
+      <c r="V17" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="100">
+      <c r="W17" s="102">
         <v>14</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="95"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="98"/>
       <c r="AB17">
         <v>6</v>
       </c>
@@ -4437,18 +4437,18 @@
       </c>
     </row>
     <row r="18" spans="12:86" ht="20">
-      <c r="Q18" s="102"/>
-      <c r="R18" s="100"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="102"/>
       <c r="S18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V18" s="102"/>
-      <c r="W18" s="100"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="102"/>
       <c r="X18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="95"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="98"/>
       <c r="AB18">
         <v>5</v>
       </c>
@@ -4509,18 +4509,18 @@
       </c>
     </row>
     <row r="19" spans="12:86" ht="20">
-      <c r="Q19" s="102"/>
-      <c r="R19" s="100"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="102"/>
       <c r="S19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V19" s="102"/>
-      <c r="W19" s="100"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="102"/>
       <c r="X19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="95"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="98"/>
       <c r="AB19">
         <v>4</v>
       </c>
@@ -4597,17 +4597,17 @@
       </c>
     </row>
     <row r="20" spans="12:86" ht="20">
-      <c r="Q20" s="102"/>
-      <c r="R20" s="100"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="102"/>
       <c r="S20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V20" s="102"/>
-      <c r="W20" s="100"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="102"/>
       <c r="X20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="102" t="s">
+      <c r="Z20" s="104" t="s">
         <v>50</v>
       </c>
       <c r="AA20" s="15">
@@ -4673,25 +4673,25 @@
       </c>
     </row>
     <row r="21" spans="12:86" ht="20">
-      <c r="Q21" s="102">
+      <c r="Q21" s="104">
         <v>0</v>
       </c>
-      <c r="R21" s="100">
+      <c r="R21" s="102">
         <v>9</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="102" t="s">
+      <c r="V21" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="W21" s="100">
+      <c r="W21" s="102">
         <v>13</v>
       </c>
       <c r="X21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Z21" s="102"/>
+      <c r="Z21" s="104"/>
       <c r="AA21" s="15">
         <v>0</v>
       </c>
@@ -4701,21 +4701,21 @@
       <c r="AD21" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AE21" s="103"/>
+      <c r="AE21" s="105"/>
       <c r="AF21">
         <v>3</v>
       </c>
       <c r="AH21" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AI21" s="103"/>
+      <c r="AI21" s="105"/>
       <c r="AJ21">
         <v>3</v>
       </c>
       <c r="AL21" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AM21" s="104" t="s">
+      <c r="AM21" s="107" t="s">
         <v>62</v>
       </c>
       <c r="AN21" s="39">
@@ -4772,17 +4772,17 @@
       </c>
     </row>
     <row r="22" spans="12:86" ht="20">
-      <c r="Q22" s="102"/>
-      <c r="R22" s="100"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="102"/>
       <c r="S22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="V22" s="102"/>
-      <c r="W22" s="100"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="102"/>
       <c r="X22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="102"/>
+      <c r="Z22" s="104"/>
       <c r="AA22" s="16" t="s">
         <v>54</v>
       </c>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="AD22" s="66"/>
-      <c r="AE22" s="103"/>
+      <c r="AE22" s="105"/>
       <c r="AF22">
         <v>2</v>
       </c>
       <c r="AH22" s="66"/>
-      <c r="AI22" s="103"/>
+      <c r="AI22" s="105"/>
       <c r="AJ22">
         <v>2</v>
       </c>
       <c r="AL22" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AM22" s="105"/>
+      <c r="AM22" s="108"/>
       <c r="AN22" s="39">
         <v>0</v>
       </c>
@@ -4847,17 +4847,17 @@
       </c>
     </row>
     <row r="23" spans="12:86" ht="20">
-      <c r="Q23" s="102"/>
-      <c r="R23" s="100"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="102"/>
       <c r="S23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V23" s="102"/>
-      <c r="W23" s="100"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="102"/>
       <c r="X23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="102"/>
+      <c r="Z23" s="104"/>
       <c r="AA23" s="16" t="s">
         <v>53</v>
       </c>
@@ -4865,19 +4865,19 @@
         <v>0</v>
       </c>
       <c r="AD23" s="66"/>
-      <c r="AE23" s="103"/>
+      <c r="AE23" s="105"/>
       <c r="AF23">
         <v>1</v>
       </c>
       <c r="AH23" s="66"/>
-      <c r="AI23" s="103"/>
+      <c r="AI23" s="105"/>
       <c r="AJ23">
         <v>1</v>
       </c>
       <c r="AL23" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AM23" s="105"/>
+      <c r="AM23" s="108"/>
       <c r="AN23" s="39">
         <v>0</v>
       </c>
@@ -4902,7 +4902,7 @@
       <c r="BK23" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="BL23" s="107" t="s">
+      <c r="BL23" s="110" t="s">
         <v>69</v>
       </c>
       <c r="BP23" s="82"/>
@@ -4926,13 +4926,13 @@
       </c>
     </row>
     <row r="24" spans="12:86" ht="20">
-      <c r="Q24" s="102"/>
-      <c r="R24" s="100"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="102"/>
       <c r="S24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V24" s="102"/>
-      <c r="W24" s="100"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="102"/>
       <c r="X24" s="7" t="s">
         <v>10</v>
       </c>
@@ -4941,19 +4941,19 @@
         <v>-1</v>
       </c>
       <c r="AD24" s="66"/>
-      <c r="AE24" s="103"/>
+      <c r="AE24" s="105"/>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AH24" s="66"/>
-      <c r="AI24" s="103"/>
+      <c r="AI24" s="105"/>
       <c r="AJ24">
         <v>0</v>
       </c>
       <c r="AL24" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AM24" s="106"/>
+      <c r="AM24" s="109"/>
       <c r="AN24" s="39">
         <v>1</v>
       </c>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AQ24" s="1"/>
       <c r="BK24" s="90"/>
-      <c r="BL24" s="107"/>
+      <c r="BL24" s="110"/>
       <c r="BP24" s="82"/>
       <c r="BQ24" s="84"/>
       <c r="BR24" t="s">
@@ -4988,10 +4988,10 @@
       <c r="S25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="102" t="s">
+      <c r="V25" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="100">
+      <c r="W25" s="102">
         <v>12</v>
       </c>
       <c r="X25" s="7" t="s">
@@ -5010,7 +5010,7 @@
         <v>63</v>
       </c>
       <c r="BK25" s="90"/>
-      <c r="BL25" s="107"/>
+      <c r="BL25" s="110"/>
       <c r="BP25" s="44"/>
       <c r="BQ25" s="45"/>
       <c r="BX25" s="51"/>
@@ -5027,8 +5027,8 @@
       <c r="S26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="102"/>
-      <c r="W26" s="100"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="102"/>
       <c r="X26" s="7" t="s">
         <v>12</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="AN26" s="23"/>
       <c r="AO26" s="22"/>
       <c r="BK26" s="90"/>
-      <c r="BL26" s="107"/>
+      <c r="BL26" s="110"/>
       <c r="BX26" s="51"/>
       <c r="BY26" s="51"/>
       <c r="CA26" s="5"/>
@@ -5055,8 +5055,8 @@
       <c r="S27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="102"/>
-      <c r="W27" s="100"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="102"/>
       <c r="X27" s="7" t="s">
         <v>13</v>
       </c>
@@ -5067,8 +5067,8 @@
       <c r="S28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="102"/>
-      <c r="W28" s="100"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="102"/>
       <c r="X28" s="7" t="s">
         <v>14</v>
       </c>
@@ -5076,10 +5076,10 @@
     <row r="29" spans="12:86" ht="20">
       <c r="R29" s="5"/>
       <c r="S29" s="6"/>
-      <c r="V29" s="102" t="s">
+      <c r="V29" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="W29" s="100">
+      <c r="W29" s="102">
         <v>11</v>
       </c>
       <c r="X29" s="7" t="s">
@@ -5088,24 +5088,24 @@
     </row>
     <row r="30" spans="12:86" ht="20">
       <c r="S30" s="6"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="100"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="102"/>
       <c r="X30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="12:86" ht="20">
       <c r="S31" s="6"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="100"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="102"/>
       <c r="X31" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="12:86" ht="20">
       <c r="S32" s="6"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="101"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="103"/>
       <c r="X32" s="7" t="s">
         <v>0</v>
       </c>
@@ -5139,8 +5139,8 @@
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="99"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="106"/>
       <c r="M39" s="51"/>
       <c r="N39" s="51"/>
       <c r="O39" s="51"/>
@@ -5150,7 +5150,7 @@
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
       <c r="J40" s="50"/>
-      <c r="K40" s="96"/>
+      <c r="K40" s="92"/>
       <c r="L40" s="87"/>
       <c r="M40" s="51"/>
       <c r="N40" s="51"/>
@@ -5164,7 +5164,7 @@
       <c r="H41" s="50"/>
       <c r="I41" s="50"/>
       <c r="J41" s="50"/>
-      <c r="K41" s="96"/>
+      <c r="K41" s="92"/>
       <c r="L41" s="87"/>
       <c r="M41" s="51"/>
       <c r="N41" s="51"/>
@@ -5180,7 +5180,7 @@
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
       <c r="J42" s="50"/>
-      <c r="K42" s="96"/>
+      <c r="K42" s="92"/>
       <c r="L42" s="87"/>
       <c r="M42" s="51"/>
       <c r="N42" s="51"/>
@@ -5196,9 +5196,9 @@
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
       <c r="J43" s="50"/>
-      <c r="K43" s="96"/>
+      <c r="K43" s="92"/>
       <c r="L43" s="87"/>
-      <c r="M43" s="97" t="s">
+      <c r="M43" s="93" t="s">
         <v>76</v>
       </c>
       <c r="N43" s="51"/>
@@ -5214,9 +5214,9 @@
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
-      <c r="K44" s="96"/>
+      <c r="K44" s="92"/>
       <c r="L44" s="87"/>
-      <c r="M44" s="97"/>
+      <c r="M44" s="93"/>
       <c r="N44" s="51"/>
       <c r="O44" s="51"/>
       <c r="P44" s="51"/>
@@ -5230,7 +5230,7 @@
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
-      <c r="K45" s="96" t="s">
+      <c r="K45" s="92" t="s">
         <v>78</v>
       </c>
       <c r="L45" s="87"/>
@@ -5248,7 +5248,7 @@
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
-      <c r="K46" s="96"/>
+      <c r="K46" s="92"/>
       <c r="L46" s="87"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
@@ -5264,7 +5264,7 @@
       <c r="H47" s="50"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="96"/>
+      <c r="K47" s="92"/>
       <c r="L47" s="87"/>
       <c r="M47" s="51"/>
       <c r="N47" s="51"/>
@@ -5280,7 +5280,7 @@
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
-      <c r="K48" s="96"/>
+      <c r="K48" s="92"/>
       <c r="L48" s="87"/>
       <c r="M48" s="51"/>
       <c r="N48" s="51"/>
@@ -5296,9 +5296,9 @@
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
-      <c r="K49" s="96"/>
+      <c r="K49" s="92"/>
       <c r="L49" s="87"/>
-      <c r="M49" s="97" t="s">
+      <c r="M49" s="93" t="s">
         <v>75</v>
       </c>
       <c r="N49" s="51"/>
@@ -5314,9 +5314,9 @@
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
-      <c r="K50" s="96"/>
+      <c r="K50" s="92"/>
       <c r="L50" s="87"/>
-      <c r="M50" s="97"/>
+      <c r="M50" s="93"/>
       <c r="N50" s="42"/>
       <c r="O50" s="51"/>
       <c r="P50" s="51"/>
@@ -5330,7 +5330,7 @@
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
       <c r="J51" s="50"/>
-      <c r="K51" s="96" t="s">
+      <c r="K51" s="92" t="s">
         <v>146</v>
       </c>
       <c r="L51" s="87"/>
@@ -5348,7 +5348,7 @@
       <c r="H52" s="50"/>
       <c r="I52" s="50"/>
       <c r="J52" s="50"/>
-      <c r="K52" s="96"/>
+      <c r="K52" s="92"/>
       <c r="L52" s="87"/>
       <c r="M52" s="51"/>
       <c r="N52" s="51"/>
@@ -5364,7 +5364,7 @@
       <c r="H53" s="46"/>
       <c r="I53" s="50"/>
       <c r="J53" s="50"/>
-      <c r="K53" s="96"/>
+      <c r="K53" s="92"/>
       <c r="L53" s="87"/>
       <c r="M53" s="51"/>
       <c r="N53" s="42"/>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="I54" s="50"/>
       <c r="J54" s="50"/>
-      <c r="K54" s="96"/>
+      <c r="K54" s="92"/>
       <c r="L54" s="87"/>
       <c r="M54" s="51"/>
       <c r="N54" s="51"/>
@@ -5400,9 +5400,9 @@
       <c r="H55" s="87"/>
       <c r="I55" s="50"/>
       <c r="J55" s="50"/>
-      <c r="K55" s="96"/>
+      <c r="K55" s="92"/>
       <c r="L55" s="87"/>
-      <c r="M55" s="97" t="s">
+      <c r="M55" s="93" t="s">
         <v>74</v>
       </c>
       <c r="N55" s="51"/>
@@ -5418,9 +5418,9 @@
       <c r="H56" s="48"/>
       <c r="I56" s="50"/>
       <c r="J56" s="50"/>
-      <c r="K56" s="96"/>
+      <c r="K56" s="92"/>
       <c r="L56" s="87"/>
-      <c r="M56" s="97"/>
+      <c r="M56" s="93"/>
       <c r="N56" s="51"/>
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
@@ -5434,7 +5434,7 @@
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
       <c r="J57" s="50"/>
-      <c r="K57" s="96" t="s">
+      <c r="K57" s="92" t="s">
         <v>79</v>
       </c>
       <c r="L57" s="87"/>
@@ -5452,7 +5452,7 @@
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
       <c r="J58" s="50"/>
-      <c r="K58" s="96"/>
+      <c r="K58" s="92"/>
       <c r="L58" s="87"/>
       <c r="M58" s="51"/>
       <c r="N58" s="51"/>
@@ -5468,7 +5468,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
-      <c r="K59" s="96"/>
+      <c r="K59" s="92"/>
       <c r="L59" s="87"/>
       <c r="M59" s="51"/>
       <c r="N59" s="51"/>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="I60" s="50"/>
       <c r="J60" s="50"/>
-      <c r="K60" s="96"/>
+      <c r="K60" s="92"/>
       <c r="L60" s="87"/>
       <c r="M60" s="51"/>
       <c r="N60" s="51"/>
@@ -5504,9 +5504,9 @@
       <c r="H61" s="87"/>
       <c r="I61" s="50"/>
       <c r="J61" s="50"/>
-      <c r="K61" s="96"/>
+      <c r="K61" s="92"/>
       <c r="L61" s="87"/>
-      <c r="M61" s="97" t="s">
+      <c r="M61" s="93" t="s">
         <v>73</v>
       </c>
       <c r="N61" s="51"/>
@@ -5522,9 +5522,9 @@
       <c r="H62" s="48"/>
       <c r="I62" s="50"/>
       <c r="J62" s="50"/>
-      <c r="K62" s="96"/>
+      <c r="K62" s="92"/>
       <c r="L62" s="87"/>
-      <c r="M62" s="97"/>
+      <c r="M62" s="93"/>
       <c r="N62" s="51"/>
       <c r="O62" s="51"/>
       <c r="P62" s="51"/>
@@ -5538,7 +5538,7 @@
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
       <c r="J63" s="50"/>
-      <c r="K63" s="98" t="s">
+      <c r="K63" s="94" t="s">
         <v>77</v>
       </c>
       <c r="L63" s="87"/>
@@ -5556,7 +5556,7 @@
       <c r="H64" s="50"/>
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
-      <c r="K64" s="98"/>
+      <c r="K64" s="94"/>
       <c r="L64" s="87"/>
       <c r="M64" s="51"/>
       <c r="N64" s="51"/>
@@ -5572,7 +5572,7 @@
       <c r="H65" s="46"/>
       <c r="I65" s="50"/>
       <c r="J65" s="50"/>
-      <c r="K65" s="98"/>
+      <c r="K65" s="94"/>
       <c r="L65" s="87"/>
       <c r="M65" s="51"/>
       <c r="N65" s="51"/>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="I66" s="50"/>
       <c r="J66" s="50"/>
-      <c r="K66" s="98"/>
+      <c r="K66" s="94"/>
       <c r="L66" s="87"/>
       <c r="M66" s="51"/>
       <c r="N66" s="51"/>
@@ -5598,9 +5598,9 @@
       <c r="H67" s="87"/>
       <c r="I67" s="50"/>
       <c r="J67" s="50"/>
-      <c r="K67" s="98"/>
+      <c r="K67" s="94"/>
       <c r="L67" s="87"/>
-      <c r="M67" s="97" t="s">
+      <c r="M67" s="93" t="s">
         <v>72</v>
       </c>
       <c r="N67" s="51"/>
@@ -5611,9 +5611,9 @@
       <c r="H68" s="48"/>
       <c r="I68" s="50"/>
       <c r="J68" s="50"/>
-      <c r="K68" s="98"/>
+      <c r="K68" s="94"/>
       <c r="L68" s="87"/>
-      <c r="M68" s="97"/>
+      <c r="M68" s="93"/>
       <c r="N68" s="51"/>
       <c r="O68" s="51"/>
     </row>
@@ -5708,19 +5708,19 @@
       </c>
     </row>
     <row r="80" spans="7:16" ht="20">
-      <c r="K80" s="109" t="s">
+      <c r="K80" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="L80" s="108">
+      <c r="L80" s="101">
         <v>10</v>
       </c>
       <c r="M80" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="N80" s="110" t="s">
+      <c r="N80" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="O80" s="108">
+      <c r="O80" s="101">
         <v>0</v>
       </c>
       <c r="P80" s="7" t="s">
@@ -5728,37 +5728,37 @@
       </c>
     </row>
     <row r="81" spans="11:16" ht="20">
-      <c r="K81" s="110"/>
-      <c r="L81" s="108"/>
+      <c r="K81" s="100"/>
+      <c r="L81" s="101"/>
       <c r="M81" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N81" s="110"/>
-      <c r="O81" s="108"/>
+      <c r="N81" s="100"/>
+      <c r="O81" s="101"/>
       <c r="P81" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="82" spans="11:16" ht="20">
-      <c r="K82" s="110"/>
-      <c r="L82" s="108"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="101"/>
       <c r="M82" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="N82" s="110"/>
-      <c r="O82" s="108"/>
+      <c r="N82" s="100"/>
+      <c r="O82" s="101"/>
       <c r="P82" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" spans="11:16" ht="20">
-      <c r="K83" s="110"/>
-      <c r="L83" s="108"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="101"/>
       <c r="M83" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N83" s="110"/>
-      <c r="O83" s="108"/>
+      <c r="N83" s="100"/>
+      <c r="O83" s="101"/>
       <c r="P83" s="7" t="s">
         <v>167</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="K90" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="L90" s="92" t="s">
+      <c r="L90" s="95" t="s">
         <v>98</v>
       </c>
       <c r="M90" s="31"/>
@@ -5791,44 +5791,44 @@
     </row>
     <row r="91" spans="11:16">
       <c r="K91" s="68"/>
-      <c r="L91" s="93"/>
+      <c r="L91" s="96"/>
       <c r="M91" s="31"/>
       <c r="N91" s="31"/>
       <c r="O91" s="31"/>
     </row>
     <row r="92" spans="11:16">
       <c r="K92" s="68"/>
-      <c r="L92" s="93"/>
+      <c r="L92" s="96"/>
       <c r="M92" s="31"/>
       <c r="N92" s="31"/>
       <c r="O92" s="31"/>
     </row>
     <row r="93" spans="11:16">
       <c r="K93" s="68"/>
-      <c r="L93" s="93"/>
+      <c r="L93" s="96"/>
       <c r="M93" s="31"/>
       <c r="N93" s="31"/>
       <c r="O93" s="31"/>
     </row>
     <row r="94" spans="11:16">
       <c r="K94" s="68"/>
-      <c r="L94" s="93"/>
+      <c r="L94" s="96"/>
     </row>
     <row r="95" spans="11:16">
       <c r="K95" s="68"/>
-      <c r="L95" s="93"/>
+      <c r="L95" s="96"/>
     </row>
     <row r="96" spans="11:16">
       <c r="K96" s="68"/>
-      <c r="L96" s="93"/>
+      <c r="L96" s="96"/>
     </row>
     <row r="97" spans="11:15">
       <c r="K97" s="68"/>
-      <c r="L97" s="94"/>
+      <c r="L97" s="97"/>
     </row>
     <row r="98" spans="11:15">
       <c r="K98" s="68"/>
-      <c r="L98" s="95" t="s">
+      <c r="L98" s="98" t="s">
         <v>100</v>
       </c>
       <c r="M98" s="31"/>
@@ -5837,22 +5837,22 @@
     </row>
     <row r="99" spans="11:15">
       <c r="K99" s="68"/>
-      <c r="L99" s="95"/>
+      <c r="L99" s="98"/>
       <c r="M99" s="31"/>
       <c r="N99" s="31"/>
       <c r="O99" s="31"/>
     </row>
     <row r="100" spans="11:15">
       <c r="K100" s="68"/>
-      <c r="L100" s="95"/>
+      <c r="L100" s="98"/>
     </row>
     <row r="101" spans="11:15">
       <c r="K101" s="68"/>
-      <c r="L101" s="95"/>
+      <c r="L101" s="98"/>
     </row>
     <row r="102" spans="11:15">
       <c r="K102" s="68"/>
-      <c r="L102" s="95" t="s">
+      <c r="L102" s="98" t="s">
         <v>99</v>
       </c>
       <c r="M102" s="31"/>
@@ -5861,18 +5861,18 @@
     </row>
     <row r="103" spans="11:15">
       <c r="K103" s="68"/>
-      <c r="L103" s="95"/>
+      <c r="L103" s="98"/>
       <c r="M103" s="31"/>
       <c r="N103" s="31"/>
       <c r="O103" s="31"/>
     </row>
     <row r="104" spans="11:15">
       <c r="K104" s="68"/>
-      <c r="L104" s="95"/>
+      <c r="L104" s="98"/>
     </row>
     <row r="105" spans="11:15">
       <c r="K105" s="68"/>
-      <c r="L105" s="95"/>
+      <c r="L105" s="98"/>
     </row>
     <row r="106" spans="11:15">
       <c r="L106" s="21"/>
@@ -5884,7 +5884,7 @@
       <c r="K123" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="L123" s="92" t="s">
+      <c r="L123" s="95" t="s">
         <v>103</v>
       </c>
       <c r="M123" s="31"/>
@@ -5893,44 +5893,44 @@
     </row>
     <row r="124" spans="11:15">
       <c r="K124" s="68"/>
-      <c r="L124" s="93"/>
+      <c r="L124" s="96"/>
       <c r="M124" s="31"/>
       <c r="N124" s="31"/>
       <c r="O124" s="31"/>
     </row>
     <row r="125" spans="11:15">
       <c r="K125" s="68"/>
-      <c r="L125" s="93"/>
+      <c r="L125" s="96"/>
       <c r="M125" s="31"/>
       <c r="N125" s="31"/>
       <c r="O125" s="31"/>
     </row>
     <row r="126" spans="11:15">
       <c r="K126" s="68"/>
-      <c r="L126" s="93"/>
+      <c r="L126" s="96"/>
       <c r="M126" s="31"/>
       <c r="N126" s="31"/>
       <c r="O126" s="31"/>
     </row>
     <row r="127" spans="11:15">
       <c r="K127" s="68"/>
-      <c r="L127" s="93"/>
+      <c r="L127" s="96"/>
     </row>
     <row r="128" spans="11:15">
       <c r="K128" s="68"/>
-      <c r="L128" s="93"/>
+      <c r="L128" s="96"/>
     </row>
     <row r="129" spans="3:15">
       <c r="K129" s="68"/>
-      <c r="L129" s="93"/>
+      <c r="L129" s="96"/>
     </row>
     <row r="130" spans="3:15">
       <c r="K130" s="68"/>
-      <c r="L130" s="94"/>
+      <c r="L130" s="97"/>
     </row>
     <row r="131" spans="3:15">
       <c r="K131" s="68"/>
-      <c r="L131" s="95" t="s">
+      <c r="L131" s="98" t="s">
         <v>104</v>
       </c>
       <c r="M131" s="31"/>
@@ -5939,18 +5939,18 @@
     </row>
     <row r="132" spans="3:15">
       <c r="K132" s="68"/>
-      <c r="L132" s="95"/>
+      <c r="L132" s="98"/>
       <c r="M132" s="31"/>
       <c r="N132" s="31"/>
       <c r="O132" s="31"/>
     </row>
     <row r="133" spans="3:15">
       <c r="K133" s="68"/>
-      <c r="L133" s="95"/>
+      <c r="L133" s="98"/>
     </row>
     <row r="134" spans="3:15">
       <c r="K134" s="68"/>
-      <c r="L134" s="95"/>
+      <c r="L134" s="98"/>
     </row>
     <row r="135" spans="3:15">
       <c r="K135" s="32"/>
@@ -6437,15 +6437,6 @@
     <mergeCell ref="AT19:AT22"/>
     <mergeCell ref="AU19:AU22"/>
     <mergeCell ref="AM21:AM24"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="V9:V12"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="W13:W16"/>
@@ -6460,6 +6451,15 @@
     <mergeCell ref="AP15:AP18"/>
     <mergeCell ref="AP19:AP22"/>
     <mergeCell ref="L39:L44"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="V9:V12"/>
     <mergeCell ref="K39:K44"/>
     <mergeCell ref="K45:K50"/>
     <mergeCell ref="L45:L50"/>
